--- a/SP500_result.xlsx
+++ b/SP500_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00715710519489221</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.004655198908682046</v>
       </c>
       <c r="D2">
-        <v>0.003542946521994958</v>
+        <v>-0.002560359399775125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004655198908682046</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00358311729940386</v>
       </c>
       <c r="D3">
-        <v>0.004219013083925943</v>
+        <v>0.001970714514672123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00358311729940386</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.006711719685688067</v>
       </c>
       <c r="D4">
-        <v>0.004819353939554839</v>
+        <v>0.003691445827128437</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006711719685688067</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.01150218150005244</v>
       </c>
       <c r="D5">
-        <v>6.534663173374776e-05</v>
+        <v>0.006326199825028845</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01150218150005244</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.743852484104025e-05</v>
       </c>
       <c r="D6">
-        <v>-0.001276976379242458</v>
+        <v>9.591188662572137e-06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.743852484104025e-05</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.002146103000463029</v>
       </c>
       <c r="D7">
-        <v>0.004778634574625741</v>
+        <v>0.001180356650254666</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.002146103000463029</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.002082468563852302</v>
       </c>
       <c r="D8">
-        <v>0.001949719837353667</v>
+        <v>0.001145357710118766</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002082468563852302</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.004625683691842575</v>
       </c>
       <c r="D9">
-        <v>-0.008561246787244021</v>
+        <v>0.002544126030513416</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004625683691842575</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C10">
-        <v>0.6044657097288676</v>
+        <v>0.001046901629863761</v>
       </c>
       <c r="D10">
-        <v>-0.009575550728404615</v>
+        <v>0.0007139969534123893</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.001046901629863761</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C11">
-        <v>1.208931419457735</v>
+        <v>-0.006085952726104793</v>
       </c>
       <c r="D11">
-        <v>-0.01148589759675362</v>
+        <v>-0.0041506781354578</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.006085952726104793</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C12">
-        <v>1.813397129186603</v>
+        <v>0.003471834314500377</v>
       </c>
       <c r="D12">
-        <v>-0.009141588463529315</v>
+        <v>0.002367824304207502</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.003471834314500377</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C13">
-        <v>2.41786283891547</v>
+        <v>3.808514800862639e-05</v>
       </c>
       <c r="D13">
-        <v>-0.02456225363078894</v>
+        <v>2.597443625334493e-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.808514800862639e-05</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C14">
-        <v>3.022328548644338</v>
+        <v>0.006587632286936262</v>
       </c>
       <c r="D14">
-        <v>-0.01952185513738226</v>
+        <v>0.004492828408038376</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006587632286936262</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C15">
-        <v>3.626794258373205</v>
+        <v>-0.0006296243621459752</v>
       </c>
       <c r="D15">
-        <v>-0.01584639635562071</v>
+        <v>-0.0004294098543193094</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0006296243621459752</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C16">
-        <v>4.231259968102073</v>
+        <v>0.0005092350573869808</v>
       </c>
       <c r="D16">
-        <v>-0.01025558630482711</v>
+        <v>0.0003473031937035037</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0005092350573869808</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C17">
-        <v>4.835725677830941</v>
+        <v>-0.002276363830394423</v>
       </c>
       <c r="D17">
-        <v>-0.01395152889462585</v>
+        <v>-0.001552501967134473</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.002276363830394423</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C18">
-        <v>5.440191387559809</v>
+        <v>0.001577819904698963</v>
       </c>
       <c r="D18">
-        <v>-0.01822689652797761</v>
+        <v>0.001076088309400274</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001577819904698963</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C19">
-        <v>6.044657097288677</v>
+        <v>0.001011525976493566</v>
       </c>
       <c r="D19">
-        <v>-0.01288609374545027</v>
+        <v>0.000689870418491836</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001011525976493566</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C20">
-        <v>6.649122807017545</v>
+        <v>0.008802364401891971</v>
       </c>
       <c r="D20">
-        <v>-0.01467166019606291</v>
+        <v>0.006003296954074299</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.008802364401891971</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>7.649122807017545</v>
+        <v>-0.002194191904615117</v>
       </c>
       <c r="D21">
-        <v>-0.02223831320678406</v>
+        <v>-0.001663093723987963</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.002194191904615117</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>8.649122807017545</v>
+        <v>-0.0003690150415502913</v>
       </c>
       <c r="D22">
-        <v>-0.02138439408444062</v>
+        <v>-0.0002796959547469925</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0003690150415502913</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>9.649122807017545</v>
+        <v>0.004674363485904109</v>
       </c>
       <c r="D23">
-        <v>-0.02669425409208223</v>
+        <v>0.003542946521994958</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.004674363485904109</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C24">
-        <v>10.25358851674641</v>
+        <v>0.001070898688248612</v>
       </c>
       <c r="D24">
-        <v>-0.03107297604950044</v>
+        <v>0.0007303631774098361</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001070898688248612</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C25">
-        <v>10.85805422647528</v>
+        <v>0.000950948132915741</v>
       </c>
       <c r="D25">
-        <v>-0.02974960290545173</v>
+        <v>0.0006485557481111167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.000950948132915741</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C26">
-        <v>11.46251993620415</v>
+        <v>-0.007530412649501272</v>
       </c>
       <c r="D26">
-        <v>-0.03813538146398223</v>
+        <v>-0.005135813658425315</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.007530412649501272</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C27">
-        <v>12.06698564593301</v>
+        <v>-0.00212625802340316</v>
       </c>
       <c r="D27">
-        <v>-0.03988349234991532</v>
+        <v>-0.001450128366956568</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.00212625802340316</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C28">
-        <v>12.67145135566188</v>
+        <v>0.00959217064148099</v>
       </c>
       <c r="D28">
-        <v>-0.02649604344095551</v>
+        <v>0.006541952385268958</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.00959217064148099</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C29">
-        <v>13.27591706539075</v>
+        <v>-0.004481039666655029</v>
       </c>
       <c r="D29">
-        <v>-0.02136428949143022</v>
+        <v>-0.003056112034640849</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.004481039666655029</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C30">
-        <v>13.88038277511961</v>
+        <v>-0.01664951500981893</v>
       </c>
       <c r="D30">
-        <v>-0.01750270066720232</v>
+        <v>-0.0113551289382858</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01664951500981893</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C31">
-        <v>14.48484848484848</v>
+        <v>-0.001606671326817022</v>
       </c>
       <c r="D31">
-        <v>-0.01090998918862797</v>
+        <v>-0.001095765256026663</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.001606671326817022</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C32">
-        <v>15.08931419457735</v>
+        <v>-0.003026015588718955</v>
       </c>
       <c r="D32">
-        <v>-0.007974877286806584</v>
+        <v>-0.002063771656946315</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.003026015588718955</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C33">
-        <v>15.69377990430621</v>
+        <v>0.00371341775645373</v>
       </c>
       <c r="D33">
-        <v>-0.008195795877386928</v>
+        <v>0.002532586528879957</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.00371341775645373</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C34">
-        <v>16.29824561403508</v>
+        <v>-0.02442654470644445</v>
       </c>
       <c r="D34">
-        <v>-0.009483473196110691</v>
+        <v>-0.01665913778839229</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02442654470644445</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C35">
-        <v>16.90271132376395</v>
+        <v>0.007984060207655297</v>
       </c>
       <c r="D35">
-        <v>-0.006902006759524218</v>
+        <v>0.005445205644458514</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007984060207655297</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C36">
-        <v>17.50717703349282</v>
+        <v>0.00582197702081011</v>
       </c>
       <c r="D36">
-        <v>-0.007920206401342016</v>
+        <v>0.003970644172400718</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.00582197702081011</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C37">
-        <v>18.11164274322168</v>
+        <v>0.008855919648712351</v>
       </c>
       <c r="D37">
-        <v>-0.007332247023245477</v>
+        <v>0.006039822146105929</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.008855919648712351</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C38">
-        <v>18.71610845295055</v>
+        <v>-0.005854423653127938</v>
       </c>
       <c r="D38">
-        <v>-0.001227209782147373</v>
+        <v>-0.003992773086868486</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.005854423653127938</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C39">
-        <v>19.32057416267942</v>
+        <v>-0.006772240853415212</v>
       </c>
       <c r="D39">
-        <v>0.0006545480354924163</v>
+        <v>-0.004618733221136194</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.006772240853415212</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C40">
-        <v>19.92503987240828</v>
+        <v>0.008459904713623345</v>
       </c>
       <c r="D40">
-        <v>0.00660627383042036</v>
+        <v>0.005769736161813257</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.008459904713623345</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C41">
-        <v>20.52950558213715</v>
+        <v>-0.002828361699002357</v>
       </c>
       <c r="D41">
-        <v>0.005810809631142167</v>
+        <v>-0.001928969808270117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.002828361699002357</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C42">
-        <v>21.13397129186602</v>
+        <v>-0.01198568194301686</v>
       </c>
       <c r="D42">
-        <v>0.00471647890091425</v>
+        <v>-0.008174350051396507</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01198568194301686</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C43">
-        <v>21.73843700159489</v>
+        <v>0.001352619578427472</v>
       </c>
       <c r="D43">
-        <v>-0.001307271011415792</v>
+        <v>0.0009224995267691442</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001352619578427472</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C44">
-        <v>22.34290271132375</v>
+        <v>-0.008410890934652748</v>
       </c>
       <c r="D44">
-        <v>-0.002243150027403604</v>
+        <v>-0.005736308294416787</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.008410890934652748</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C45">
-        <v>22.94736842105262</v>
+        <v>-0.006935955517473502</v>
       </c>
       <c r="D45">
-        <v>0.0006491388571517567</v>
+        <v>-0.004730388192369512</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.006935955517473502</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C46">
-        <v>23.55183413078149</v>
+        <v>0.002096241174800006</v>
       </c>
       <c r="D46">
-        <v>0.005000478583840848</v>
+        <v>0.001429656588288613</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.002096241174800006</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C47">
-        <v>24.15629984051035</v>
+        <v>-0.01328318802312012</v>
       </c>
       <c r="D47">
-        <v>0.01079350787516181</v>
+        <v>-0.009059261643661713</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01328318802312012</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C48">
-        <v>24.76076555023922</v>
+        <v>-0.002769031571849823</v>
       </c>
       <c r="D48">
-        <v>0.01300966336003484</v>
+        <v>-0.0018885060924595</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.002769031571849823</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C49">
-        <v>25.36523125996809</v>
+        <v>0.02120590232217978</v>
       </c>
       <c r="D49">
-        <v>0.01880275370567033</v>
+        <v>0.01446262879003011</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.02120590232217978</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C50">
-        <v>25.96969696969695</v>
+        <v>0.008128768500641037</v>
       </c>
       <c r="D50">
-        <v>0.01743276780946606</v>
+        <v>0.00554389808831188</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.008128768500641037</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C51">
-        <v>26.57416267942582</v>
+        <v>0.006116809555866354</v>
       </c>
       <c r="D51">
-        <v>0.01375882999772362</v>
+        <v>0.00417172278933286</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.006116809555866354</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C52">
-        <v>27.17862838915469</v>
+        <v>0.01044294522456735</v>
       </c>
       <c r="D52">
-        <v>0.01469552008245535</v>
+        <v>0.007122188811535105</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01044294522456735</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C53">
-        <v>27.78309409888356</v>
+        <v>0.004649257428951614</v>
       </c>
       <c r="D53">
-        <v>0.01810667475661382</v>
+        <v>0.003170838162066251</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.004649257428951614</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C54">
-        <v>28.38755980861242</v>
+        <v>-0.0003499380714622191</v>
       </c>
       <c r="D54">
-        <v>0.01983683199431285</v>
+        <v>-0.0002386611213314725</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0003499380714622191</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C55">
-        <v>28.99202551834129</v>
+        <v>-0.002039698498872866</v>
       </c>
       <c r="D55">
-        <v>0.02333061394167897</v>
+        <v>-0.001391093940950853</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.002039698498872866</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C56">
-        <v>29.59649122807016</v>
+        <v>0.004089078171241489</v>
       </c>
       <c r="D56">
-        <v>0.0234638953876615</v>
+        <v>0.002788790535087303</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.004089078171241489</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C57">
-        <v>30.20095693779902</v>
+        <v>-0.001612842169983253</v>
       </c>
       <c r="D57">
-        <v>0.02087959391954757</v>
+        <v>-0.001099973830256553</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.001612842169983253</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C58">
-        <v>30.80542264752789</v>
+        <v>0.000931335703024061</v>
       </c>
       <c r="D58">
-        <v>0.01591301299854532</v>
+        <v>0.0006351798828032215</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.000931335703024061</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C59">
-        <v>31.40988835725676</v>
+        <v>0.009670462557011206</v>
       </c>
       <c r="D59">
-        <v>0.01862309998437352</v>
+        <v>0.006595348222633991</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.009670462557011206</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C60">
-        <v>32.01435406698563</v>
+        <v>0.00298073014106226</v>
       </c>
       <c r="D60">
-        <v>0.01392690853796708</v>
+        <v>0.002032886547267954</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.00298073014106226</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C61">
-        <v>32.6188197767145</v>
+        <v>0.009427615127716393</v>
       </c>
       <c r="D61">
-        <v>0.01606791878091351</v>
+        <v>0.006429723946470536</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.009427615127716393</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C62">
-        <v>33.22328548644337</v>
+        <v>-0.001260026180148088</v>
       </c>
       <c r="D62">
-        <v>0.02124031298354887</v>
+        <v>-0.0008593499409898352</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.001260026180148088</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C63">
-        <v>33.82775119617224</v>
+        <v>-0.001733434856124205</v>
       </c>
       <c r="D63">
-        <v>0.02478538190579586</v>
+        <v>-0.001182219198925681</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.001733434856124205</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C64">
-        <v>34.43221690590111</v>
+        <v>-0.009541702315563505</v>
       </c>
       <c r="D64">
-        <v>0.02078623305258228</v>
+        <v>-0.006507532502902744</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.009541702315563505</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>35.43221690590111</v>
+        <v>-0.00123474590214645</v>
       </c>
       <c r="D65">
-        <v>0.02636512454383063</v>
+        <v>-0.0009358790159878113</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.00123474590214645</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>36.43221690590111</v>
+        <v>0.003815922557317997</v>
       </c>
       <c r="D66">
-        <v>0.02513922945085988</v>
+        <v>0.002892288884555361</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003815922557317997</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>37.43221690590111</v>
+        <v>0.005740911810812932</v>
       </c>
       <c r="D67">
-        <v>0.02318221645814835</v>
+        <v>0.004351339726689092</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.005740911810812932</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>38.43221690590111</v>
+        <v>0.007642995575579903</v>
       </c>
       <c r="D68">
-        <v>0.01488627967634019</v>
+        <v>0.005793029291320964</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.007642995575579903</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>39.43221690590111</v>
+        <v>0.002923870347256496</v>
       </c>
       <c r="D69">
-        <v>0.008034700322149421</v>
+        <v>0.002216155484873027</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.002923870347256496</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>40.43221690590111</v>
+        <v>0.007643076127193282</v>
       </c>
       <c r="D70">
-        <v>0.003420229242259522</v>
+        <v>0.005793090345635487</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.007643076127193282</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>41.43221690590111</v>
+        <v>-0.001807481995470539</v>
       </c>
       <c r="D71">
-        <v>-0.01566430412278819</v>
+        <v>-0.001369985896204269</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.001807481995470539</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>42.43221690590111</v>
+        <v>-0.004847185993375192</v>
       </c>
       <c r="D72">
-        <v>-0.007499593301832676</v>
+        <v>-0.003673937811742441</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.004847185993375192</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>43.43221690590111</v>
+        <v>0.001235815980426658</v>
       </c>
       <c r="D73">
-        <v>-0.007015635436188969</v>
+        <v>0.0009366900847317283</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001235815980426658</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>44.43221690590111</v>
+        <v>0.004500484767317126</v>
       </c>
       <c r="D74">
-        <v>0.004719380440591502</v>
+        <v>0.003411154674158474</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004500484767317126</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>45.43221690590111</v>
+        <v>0.002282671715919449</v>
       </c>
       <c r="D75">
-        <v>0.000528425646817543</v>
+        <v>0.001730157237699033</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.002282671715919449</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>46.43221690590111</v>
+        <v>0.00460949852364223</v>
       </c>
       <c r="D76">
-        <v>-0.007065984799116656</v>
+        <v>0.003493781947366118</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.00460949852364223</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>47.43221690590111</v>
+        <v>0.0001758440102275216</v>
       </c>
       <c r="D77">
-        <v>0.002185280225363313</v>
+        <v>0.0001332814459825309</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0001758440102275216</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>48.43221690590111</v>
+        <v>-0.003409581359505864</v>
       </c>
       <c r="D78">
-        <v>-0.01658372644050839</v>
+        <v>-0.002584301468113932</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.003409581359505864</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>49.43221690590111</v>
+        <v>-0.006552626285154517</v>
       </c>
       <c r="D79">
-        <v>-0.01502992876755295</v>
+        <v>-0.004966580921002254</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.006552626285154517</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>50.43221690590111</v>
+        <v>0.003575535665451213</v>
       </c>
       <c r="D80">
-        <v>-0.005987635612174087</v>
+        <v>0.002710086985828208</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003575535665451213</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>51.43221690590111</v>
+        <v>-0.006195889687755418</v>
       </c>
       <c r="D81">
-        <v>0.001609006633697708</v>
+        <v>-0.004696191446406445</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.006195889687755418</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>52.43221690590111</v>
+        <v>0.002824727960313744</v>
       </c>
       <c r="D82">
-        <v>-0.00340752329923687</v>
+        <v>0.002141010242946433</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.002824727960313744</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>53.43221690590111</v>
+        <v>0.006824164701725977</v>
       </c>
       <c r="D83">
-        <v>0.001777410619303412</v>
+        <v>0.005172394202635357</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006824164701725977</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>54.43221690590111</v>
+        <v>0.004677163660893768</v>
       </c>
       <c r="D84">
-        <v>0.001457836594633931</v>
+        <v>0.003545068922246994</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.004677163660893768</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>55.43221690590111</v>
+        <v>-0.005276251069020077</v>
       </c>
       <c r="D85">
-        <v>-0.0151385702126562</v>
+        <v>-0.003999148853213582</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.005276251069020077</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>56.43221690590111</v>
+        <v>0.007360474259664684</v>
       </c>
       <c r="D86">
-        <v>-0.008242675779949641</v>
+        <v>0.00557889149124835</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.007360474259664684</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>57.43221690590111</v>
+        <v>-0.001617376729949882</v>
       </c>
       <c r="D87">
-        <v>-0.01026812032284598</v>
+        <v>-0.001225895092970754</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.001617376729949882</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>58.43221690590111</v>
+        <v>-0.002581972383094211</v>
       </c>
       <c r="D88">
-        <v>-0.006149379913399056</v>
+        <v>-0.001957012992711523</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.002581972383094211</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>59.43221690590111</v>
+        <v>-0.01094519031927632</v>
       </c>
       <c r="D89">
-        <v>0.001809790851648892</v>
+        <v>-0.008295936781808165</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01094519031927632</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>60.43221690590111</v>
+        <v>-0.009039586726804494</v>
       </c>
       <c r="D90">
-        <v>0.002215482308692249</v>
+        <v>-0.006851579354190765</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.009039586726804494</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C91">
-        <v>61.03668261562998</v>
+        <v>-0.007309385354455245</v>
       </c>
       <c r="D91">
-        <v>-0.002155079292245569</v>
+        <v>-0.004985070923117525</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.007309385354455245</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C92">
-        <v>61.64114832535885</v>
+        <v>-0.03023016208358609</v>
       </c>
       <c r="D92">
-        <v>0.004652767197041038</v>
+        <v>-0.02061726050770602</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.03023016208358609</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C93">
-        <v>62.24561403508772</v>
+        <v>0.01293301370077682</v>
       </c>
       <c r="D93">
-        <v>0.01281300153738532</v>
+        <v>0.008820439396963232</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01293301370077682</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C94">
-        <v>62.85007974481659</v>
+        <v>0.0007665958837028697</v>
       </c>
       <c r="D94">
-        <v>0.01338762025756594</v>
+        <v>0.00052282574584735</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0007665958837028697</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C95">
-        <v>63.45454545454546</v>
+        <v>0.0185884257803357</v>
       </c>
       <c r="D95">
-        <v>0.01332827427967624</v>
+        <v>0.01267748468174529</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0185884257803357</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C96">
-        <v>64.05901116427432</v>
+        <v>-0.006638529760062184</v>
       </c>
       <c r="D96">
-        <v>0.01353172298206866</v>
+        <v>-0.004527540972917108</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.006638529760062184</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C97">
-        <v>64.66347687400319</v>
+        <v>-0.01202965010034429</v>
       </c>
       <c r="D97">
-        <v>0.01807944823492031</v>
+        <v>-0.008204336756434907</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01202965010034429</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C98">
-        <v>65.26794258373207</v>
+        <v>0.01465413043215591</v>
       </c>
       <c r="D98">
-        <v>0.01989443935918323</v>
+        <v>0.009994257516657707</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01465413043215591</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C99">
-        <v>65.87240829346094</v>
+        <v>-0.02973036347309144</v>
       </c>
       <c r="D99">
-        <v>0.01943698217364886</v>
+        <v>-0.02027639306129717</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.02973036347309144</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C100">
-        <v>66.47687400318981</v>
+        <v>0.002461236782690612</v>
       </c>
       <c r="D100">
-        <v>0.01745433793937474</v>
+        <v>0.001678587093895629</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.002461236782690612</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C101">
-        <v>67.08133971291868</v>
+        <v>0.0143231161310462</v>
       </c>
       <c r="D101">
-        <v>0.01908211969853221</v>
+        <v>0.009768502588222816</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0143231161310462</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C102">
-        <v>67.68580542264755</v>
+        <v>0.01203318530199482</v>
       </c>
       <c r="D102">
-        <v>0.01929842056605809</v>
+        <v>0.008206747797870104</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.01203318530199482</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C103">
-        <v>68.29027113237642</v>
+        <v>-0.007946252081149296</v>
       </c>
       <c r="D103">
-        <v>0.01931101833260781</v>
+        <v>-0.005419420139527141</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.007946252081149296</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C104">
-        <v>68.89473684210529</v>
+        <v>0.008213006299500059</v>
       </c>
       <c r="D104">
-        <v>0.01621280712598283</v>
+        <v>0.005601349075139872</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.008213006299500059</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C105">
-        <v>69.49920255183416</v>
+        <v>-0.0005062096294770058</v>
       </c>
       <c r="D105">
-        <v>0.01615161601118649</v>
+        <v>-0.0003452398228490977</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0005062096294770058</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C106">
-        <v>70.10366826156303</v>
+        <v>-0.02628893555806666</v>
       </c>
       <c r="D106">
-        <v>0.01081579590274234</v>
+        <v>-0.01792930621318919</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02628893555806666</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C107">
-        <v>70.7081339712919</v>
+        <v>0.01092319117394869</v>
       </c>
       <c r="D107">
-        <v>0.01469182231948684</v>
+        <v>0.007449721155516211</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01092319117394869</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C108">
-        <v>71.31259968102077</v>
+        <v>-0.00320833188068459</v>
       </c>
       <c r="D108">
-        <v>0.01315656342413332</v>
+        <v>-0.002188113116838632</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.00320833188068459</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C109">
-        <v>71.91706539074964</v>
+        <v>0.006524141186801558</v>
       </c>
       <c r="D109">
-        <v>0.009791372547640851</v>
+        <v>0.004449526868742004</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.006524141186801558</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C110">
-        <v>72.52153110047851</v>
+        <v>0.0126074354387411</v>
       </c>
       <c r="D110">
-        <v>0.01296996041095399</v>
+        <v>0.008598391899319107</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0126074354387411</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C111">
-        <v>73.12599681020738</v>
+        <v>0.0006426208211518514</v>
       </c>
       <c r="D111">
-        <v>0.005183329324518369</v>
+        <v>0.0004382735640229156</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0006426208211518514</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C112">
-        <v>73.73046251993625</v>
+        <v>-0.006923029401107783</v>
       </c>
       <c r="D112">
-        <v>-0.006221522491422563</v>
+        <v>-0.004721572457021217</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.006923029401107783</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C113">
-        <v>74.33492822966512</v>
+        <v>0.01078372202635158</v>
       </c>
       <c r="D113">
-        <v>-0.001208698236324226</v>
+        <v>0.007354601859071603</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01078372202635158</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C114">
-        <v>74.93939393939399</v>
+        <v>0.01292592289421357</v>
       </c>
       <c r="D114">
-        <v>0.007703309137213892</v>
+        <v>0.008815603398872319</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01292592289421357</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C115">
-        <v>75.54385964912287</v>
+        <v>0.000910203918275343</v>
       </c>
       <c r="D115">
-        <v>0.004869771592077882</v>
+        <v>0.0006207678029092256</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.000910203918275343</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C116">
-        <v>76.14832535885174</v>
+        <v>-9.400484131827369e-05</v>
       </c>
       <c r="D116">
-        <v>-0.005031131809127601</v>
+        <v>-6.411220347034619e-05</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-9.400484131827369e-05</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C117">
-        <v>76.75279106858061</v>
+        <v>0.0003222655294408128</v>
       </c>
       <c r="D117">
-        <v>-4.628918876024325e-05</v>
+        <v>0.0002197881822387789</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0003222655294408128</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C118">
-        <v>77.35725677830948</v>
+        <v>0.007203659050794897</v>
       </c>
       <c r="D118">
-        <v>0.003471075676567834</v>
+        <v>0.004912964569898012</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.007203659050794897</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C119">
-        <v>77.96172248803835</v>
+        <v>0.002874970784835895</v>
       </c>
       <c r="D119">
-        <v>0.0103394085035077</v>
+        <v>0.001960757651881377</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002874970784835895</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C120">
-        <v>78.56618819776722</v>
+        <v>-0.0007246184436624503</v>
       </c>
       <c r="D120">
-        <v>0.009463126824639467</v>
+        <v>-0.0004941967290935877</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.0007246184436624503</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C121">
-        <v>79.17065390749609</v>
+        <v>-0.003140535605966832</v>
       </c>
       <c r="D121">
-        <v>0.01571713545214561</v>
+        <v>-0.002141875407181529</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.003140535605966832</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C122">
-        <v>79.77511961722496</v>
+        <v>0.002578428587945325</v>
       </c>
       <c r="D122">
-        <v>0.01445354297893081</v>
+        <v>0.001758513029179207</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.002578428587945325</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C123">
-        <v>80.37958532695383</v>
+        <v>0.0003426235349355267</v>
       </c>
       <c r="D123">
-        <v>0.0161953326357099</v>
+        <v>0.0002336725372594793</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0003426235349355267</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C124">
-        <v>80.9840510366827</v>
+        <v>1.995503465579418e-05</v>
       </c>
       <c r="D124">
-        <v>0.01371615857622363</v>
+        <v>1.360952504327444e-05</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.995503465579418e-05</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C125">
-        <v>81.58851674641157</v>
+        <v>-0.00490760896030018</v>
       </c>
       <c r="D125">
-        <v>0.01803942140456271</v>
+        <v>-0.003347036384545192</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.00490760896030018</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C126">
-        <v>82.19298245614044</v>
+        <v>-9.692756343504527e-05</v>
       </c>
       <c r="D126">
-        <v>0.01578246127272157</v>
+        <v>-6.610552798863688e-05</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-9.692756343504527e-05</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C127">
-        <v>82.79744816586931</v>
+        <v>-0.008452012089671612</v>
       </c>
       <c r="D127">
-        <v>0.01757732807644977</v>
+        <v>-0.005764353316572391</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.008452012089671612</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C128">
-        <v>83.40191387559818</v>
+        <v>0.006139678900037637</v>
       </c>
       <c r="D128">
-        <v>0.01878855383651316</v>
+        <v>0.004187319901419657</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.006139678900037637</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C129">
-        <v>84.00637958532705</v>
+        <v>-0.002431871105206262</v>
       </c>
       <c r="D129">
-        <v>0.02135445737799549</v>
+        <v>-0.001658559420176709</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.002431871105206262</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C130">
-        <v>84.61084529505592</v>
+        <v>-0.005330508411847568</v>
       </c>
       <c r="D130">
-        <v>0.02441568135405232</v>
+        <v>-0.003635457866937859</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.005330508411847568</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C131">
-        <v>85.21531100478479</v>
+        <v>0.005034926684707841</v>
       </c>
       <c r="D131">
-        <v>0.02395767309561476</v>
+        <v>0.003433868293818557</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.005034926684707841</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C132">
-        <v>85.81977671451367</v>
+        <v>-0.01233413022605756</v>
       </c>
       <c r="D132">
-        <v>0.02600819048836076</v>
+        <v>-0.008411995122734505</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.01233413022605756</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C133">
-        <v>86.42424242424254</v>
+        <v>-0.01806544138860655</v>
       </c>
       <c r="D133">
-        <v>0.02409693710948392</v>
+        <v>-0.01232080431013727</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01806544138860655</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C134">
-        <v>87.02870813397141</v>
+        <v>0.007940382236732546</v>
       </c>
       <c r="D134">
-        <v>0.03016757815166453</v>
+        <v>0.005415416849331567</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.007940382236732546</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C135">
-        <v>87.63317384370028</v>
+        <v>0.0141167416692296</v>
       </c>
       <c r="D135">
-        <v>0.03220104409316053</v>
+        <v>0.009627753225726985</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0141167416692296</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C136">
-        <v>88.23763955342915</v>
+        <v>-0.004488362257589529</v>
       </c>
       <c r="D136">
-        <v>0.03145203889817464</v>
+        <v>-0.003061106111896224</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004488362257589529</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C137">
-        <v>88.84210526315802</v>
+        <v>-0.01568316651328416</v>
       </c>
       <c r="D137">
-        <v>0.03189539313813475</v>
+        <v>-0.01069606999446674</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01568316651328416</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>88.84210526315802</v>
+        <v>0.009063350218849742</v>
       </c>
       <c r="D138">
-        <v>0.03361659475641309</v>
+        <v>0.004984842620367358</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.009063350218849742</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>88.84210526315802</v>
+        <v>0.006395208846051048</v>
       </c>
       <c r="D139">
-        <v>0.035231073058462</v>
+        <v>0.003517364865328077</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.006395208846051048</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C140">
-        <v>89.44657097288689</v>
+        <v>0.01087953321314483</v>
       </c>
       <c r="D140">
-        <v>0.0338788396817418</v>
+        <v>0.007419946007482287</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01087953321314483</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C141">
-        <v>90.05103668261576</v>
+        <v>-0.001388042174066406</v>
       </c>
       <c r="D141">
-        <v>0.03495505008836702</v>
+        <v>-0.0009466580767672461</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.001388042174066406</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C142">
-        <v>90.65550239234463</v>
+        <v>0.009906435272235115</v>
       </c>
       <c r="D142">
-        <v>0.03544469227478397</v>
+        <v>0.006756283877859063</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.009906435272235115</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C143">
-        <v>91.2599681020735</v>
+        <v>-0.00200154777390793</v>
       </c>
       <c r="D143">
-        <v>0.03602068865687273</v>
+        <v>-0.001365074780584292</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.00200154777390793</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C144">
-        <v>91.86443381180237</v>
+        <v>0.002759018658343493</v>
       </c>
       <c r="D144">
-        <v>0.0412978045876606</v>
+        <v>0.001881677189404652</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002759018658343493</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C145">
-        <v>92.46889952153124</v>
+        <v>-0.003927045645713889</v>
       </c>
       <c r="D145">
-        <v>0.041615355139429</v>
+        <v>-0.002678282798466932</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.003927045645713889</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C146">
-        <v>93.07336523126011</v>
+        <v>0.006848107497875233</v>
       </c>
       <c r="D146">
-        <v>0.04124115458081767</v>
+        <v>0.004670475000368236</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.006848107497875233</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C147">
-        <v>93.67783094098898</v>
+        <v>-0.003575055742610189</v>
       </c>
       <c r="D147">
-        <v>0.03886537601829653</v>
+        <v>-0.002438222308274869</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.003575055742610189</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C148">
-        <v>94.28229665071785</v>
+        <v>0.00284309358564272</v>
       </c>
       <c r="D148">
-        <v>0.03786536493827108</v>
+        <v>0.001939017096266607</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.00284309358564272</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C149">
-        <v>94.88676236044672</v>
+        <v>0.001918598183468845</v>
       </c>
       <c r="D149">
-        <v>0.03923692756165238</v>
+        <v>0.001308502364255148</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001918598183468845</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C150">
-        <v>95.49122807017559</v>
+        <v>0.004064426332368143</v>
       </c>
       <c r="D150">
-        <v>0.04395866625773455</v>
+        <v>0.002771977744516069</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.004064426332368143</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>95.49122807017559</v>
+        <v>0.005565861774648795</v>
       </c>
       <c r="D151">
-        <v>0.04534320173360169</v>
+        <v>0.003061223976056837</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.005565861774648795</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>95.49122807017559</v>
+        <v>-0.0008327422880682889</v>
       </c>
       <c r="D152">
-        <v>0.04797308999463427</v>
+        <v>-0.0004580082584375589</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.0008327422880682889</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C153">
-        <v>96.09569377990447</v>
+        <v>0.003248047618049199</v>
       </c>
       <c r="D153">
-        <v>0.04543566421275642</v>
+        <v>0.002215199630673316</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.003248047618049199</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C154">
-        <v>96.70015948963334</v>
+        <v>-0.00302745151380357</v>
       </c>
       <c r="D154">
-        <v>0.03996315623466674</v>
+        <v>-0.002064750971627367</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.00302745151380357</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C155">
-        <v>97.30462519936221</v>
+        <v>0.009615978507103051</v>
       </c>
       <c r="D155">
-        <v>0.0357585386307342</v>
+        <v>0.006558189577987451</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.009615978507103051</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>97.30462519936221</v>
+        <v>0.003697210802720008</v>
       </c>
       <c r="D156">
-        <v>0.04009783124085256</v>
+        <v>0.002033465941496004</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.003697210802720008</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C157">
-        <v>97.90909090909108</v>
+        <v>-0.001186434481407872</v>
       </c>
       <c r="D157">
-        <v>0.0410442574006664</v>
+        <v>-0.0008091596965599028</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.001186434481407872</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C158">
-        <v>98.51355661881995</v>
+        <v>0.0007022791848285692</v>
       </c>
       <c r="D158">
-        <v>0.04678552851971205</v>
+        <v>0.0004789611402914597</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0007022791848285692</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C159">
-        <v>99.11802232854882</v>
+        <v>0.002726406923544644</v>
       </c>
       <c r="D159">
-        <v>0.04478564102519385</v>
+        <v>0.001859435673461172</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002726406923544644</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C160">
-        <v>99.72248803827769</v>
+        <v>0.002557355729784661</v>
       </c>
       <c r="D160">
-        <v>0.04409274621724323</v>
+        <v>0.001744141137783485</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.002557355729784661</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C161">
-        <v>100.5197230613192</v>
+        <v>-0.001964373318800838</v>
       </c>
       <c r="D161">
-        <v>0.04592605175458435</v>
+        <v>-0.001415221842989507</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.001964373318800838</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C162">
-        <v>101.3169580843606</v>
+        <v>0.001563398038079811</v>
       </c>
       <c r="D162">
-        <v>0.05131654084147665</v>
+        <v>0.001126341429911171</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001563398038079811</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C163">
-        <v>102.1141931074021</v>
+        <v>0.0007112973716782989</v>
       </c>
       <c r="D163">
-        <v>0.05136236450823638</v>
+        <v>0.0005124502392827576</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0007112973716782989</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C164">
-        <v>102.9114281304436</v>
+        <v>0.000836743083095115</v>
       </c>
       <c r="D164">
-        <v>0.05626526948087919</v>
+        <v>0.000602826905065824</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.000836743083095115</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C165">
-        <v>103.7086631534851</v>
+        <v>0.007666003452600378</v>
       </c>
       <c r="D165">
-        <v>0.05647689303784079</v>
+        <v>0.005522929593228192</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.007666003452600378</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C166">
-        <v>104.313128863214</v>
+        <v>0.0005030044207039452</v>
       </c>
       <c r="D166">
-        <v>0.05620394472724075</v>
+        <v>0.0003430538397216154</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0005030044207039452</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C167">
-        <v>104.9175945729428</v>
+        <v>-0.0005927388069810746</v>
       </c>
       <c r="D167">
-        <v>0.05901282739830867</v>
+        <v>-0.0004042535518918397</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.0005927388069810746</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C168">
-        <v>105.5220602826717</v>
+        <v>-0.003763265763220502</v>
       </c>
       <c r="D168">
-        <v>0.06212684181353159</v>
+        <v>-0.002566583347635305</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.003763265763220502</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C169">
-        <v>106.1265259924006</v>
+        <v>-0.001584031239135086</v>
       </c>
       <c r="D169">
-        <v>0.06267340059439494</v>
+        <v>-0.001080324499064622</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.001584031239135086</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C170">
-        <v>106.7309917021294</v>
+        <v>0.002172573969691172</v>
       </c>
       <c r="D170">
-        <v>0.06255002544971112</v>
+        <v>0.001481716286585994</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.002172573969691172</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C171">
-        <v>107.3354574118583</v>
+        <v>0.00747929872680686</v>
       </c>
       <c r="D171">
-        <v>0.06577919778584793</v>
+        <v>0.005100953472864694</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.00747929872680686</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C172">
-        <v>107.9399231215872</v>
+        <v>0.002193123145604048</v>
       </c>
       <c r="D172">
-        <v>0.06580063130267567</v>
+        <v>0.001495731021665582</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.002193123145604048</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C173">
-        <v>108.5443888313161</v>
+        <v>0.004165779003972858</v>
       </c>
       <c r="D173">
-        <v>0.06214056054654472</v>
+        <v>0.00284110123872191</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.004165779003972858</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C174">
-        <v>109.1488545410449</v>
+        <v>-0.004019317171344738</v>
       </c>
       <c r="D174">
-        <v>0.06399767436087832</v>
+        <v>-0.002741212864012548</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.004019317171344738</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C175">
-        <v>109.7533202507738</v>
+        <v>-0.008668527546204174</v>
       </c>
       <c r="D175">
-        <v>0.06926522635031436</v>
+        <v>-0.005912018934736593</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.008668527546204174</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C176">
-        <v>110.3577859605027</v>
+        <v>-0.006660171838372975</v>
       </c>
       <c r="D176">
-        <v>0.06479246855108689</v>
+        <v>-0.004542301077915156</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.006660171838372975</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C177">
-        <v>111.1550209835441</v>
+        <v>0.00630363868584638</v>
       </c>
       <c r="D177">
-        <v>0.06701919574703644</v>
+        <v>0.004541421466653479</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.00630363868584638</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C178">
-        <v>111.759486693273</v>
+        <v>0.00149915199203754</v>
       </c>
       <c r="D178">
-        <v>0.06524702359741358</v>
+        <v>0.001022436038385205</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.00149915199203754</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C179">
-        <v>112.3639524030019</v>
+        <v>0.009094252040368289</v>
       </c>
       <c r="D179">
-        <v>0.06833439424016555</v>
+        <v>0.006202367123291581</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.009094252040368289</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C180">
-        <v>112.9684181127308</v>
+        <v>-0.003167849166223036</v>
       </c>
       <c r="D180">
-        <v>0.07252201211676097</v>
+        <v>-0.002160503517267014</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.003167849166223036</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C181">
-        <v>113.5728838224596</v>
+        <v>-0.001097554860292504</v>
       </c>
       <c r="D181">
-        <v>0.07071690946751952</v>
+        <v>-0.0007485429424288789</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.001097554860292504</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C182">
-        <v>114.1773495321885</v>
+        <v>0.002903981065843553</v>
       </c>
       <c r="D182">
-        <v>0.07510579805099857</v>
+        <v>0.001980542941794242</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.002903981065843553</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C183">
-        <v>114.7818152419174</v>
+        <v>0.008538608499854661</v>
       </c>
       <c r="D183">
-        <v>0.07414893338307174</v>
+        <v>0.005823412898947091</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.008538608499854661</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C184">
-        <v>115.3862809516462</v>
+        <v>7.258531539200419e-05</v>
       </c>
       <c r="D184">
-        <v>0.07532847408858109</v>
+        <v>4.950388133325645e-05</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7.258531539200419e-05</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C185">
-        <v>116.1835159746877</v>
+        <v>0.007122391651236626</v>
       </c>
       <c r="D185">
-        <v>0.08058836653404813</v>
+        <v>0.005131287491376342</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.007122391651236626</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C186">
-        <v>116.7879816844166</v>
+        <v>0.0003352146109776299</v>
       </c>
       <c r="D186">
-        <v>0.08302187184172338</v>
+        <v>0.0002286195800540438</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0003352146109776299</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C187">
-        <v>117.3924473941455</v>
+        <v>-0.0004323538601678223</v>
       </c>
       <c r="D187">
-        <v>0.08134544886830829</v>
+        <v>-0.0002948694797581736</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.0004323538601678223</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C188">
-        <v>117.9969131038743</v>
+        <v>0.004449308599584256</v>
       </c>
       <c r="D188">
-        <v>0.08152792586446315</v>
+        <v>0.003034471142535251</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.004449308599584256</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C189">
-        <v>118.6013788136032</v>
+        <v>0.004932641459037157</v>
       </c>
       <c r="D189">
-        <v>0.08224781512780929</v>
+        <v>0.003364108788794699</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.004932641459037157</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C190">
-        <v>119.2058445233321</v>
+        <v>0.0008657565903060771</v>
       </c>
       <c r="D190">
-        <v>0.07651347781906684</v>
+        <v>0.0005904542988969078</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0008657565903060771</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C191">
-        <v>119.8103102330609</v>
+        <v>-0.0001954279179656737</v>
       </c>
       <c r="D191">
-        <v>0.06650363684593122</v>
+        <v>-0.0001332837145906209</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.0001954279179656737</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C192">
-        <v>120.4147759427898</v>
+        <v>0.00511505318207206</v>
       </c>
       <c r="D192">
-        <v>0.07281882870756871</v>
+        <v>0.003488515333591629</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.00511505318207206</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C193">
-        <v>121.0192416525187</v>
+        <v>3.395098404190833e-05</v>
       </c>
       <c r="D193">
-        <v>0.07234185589749167</v>
+        <v>2.315489677328117e-05</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.395098404190833e-05</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C194">
-        <v>121.6237073622476</v>
+        <v>-0.005797602177576522</v>
       </c>
       <c r="D194">
-        <v>0.0743175041423625</v>
+        <v>-0.003954020295512733</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.005797602177576522</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C195">
-        <v>122.2281730719764</v>
+        <v>0.002941693702492643</v>
       </c>
       <c r="D195">
-        <v>0.06303952307094658</v>
+        <v>0.002006263321727266</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002941693702492643</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C196">
-        <v>122.8326387817053</v>
+        <v>0.008343874454693534</v>
       </c>
       <c r="D196">
-        <v>0.0676029027416236</v>
+        <v>0.005690602412264776</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.008343874454693534</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C197">
-        <v>123.4371044914342</v>
+        <v>-0.007084909578082943</v>
       </c>
       <c r="D197">
-        <v>0.07698998400778689</v>
+        <v>-0.004831976290467502</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.007084909578082943</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C198">
-        <v>124.041570201163</v>
+        <v>0.003527166358322731</v>
       </c>
       <c r="D198">
-        <v>0.08405294246964519</v>
+        <v>0.002405561288837455</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.003527166358322731</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C199">
-        <v>124.6460359108919</v>
+        <v>-0.002807144942890361</v>
       </c>
       <c r="D199">
-        <v>0.08614896522143495</v>
+        <v>-0.001914499777091323</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.002807144942890361</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C200">
-        <v>125.2505016206208</v>
+        <v>0.004890437358737287</v>
       </c>
       <c r="D200">
-        <v>0.08273013711735758</v>
+        <v>0.003335325187569873</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.004890437358737287</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C201">
-        <v>125.8549673303497</v>
+        <v>0.006633244037574926</v>
       </c>
       <c r="D201">
-        <v>0.08733846355837485</v>
+        <v>0.004523936059480325</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.006633244037574926</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C202">
-        <v>126.4594330400785</v>
+        <v>-0.002859307305046244</v>
       </c>
       <c r="D202">
-        <v>0.08840352689601835</v>
+        <v>-0.001950075008421262</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.002859307305046244</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C203">
-        <v>127.0638987498074</v>
+        <v>0.006952059592316928</v>
       </c>
       <c r="D203">
-        <v>0.09247032732939799</v>
+        <v>0.004741371325882474</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.006952059592316928</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C204">
-        <v>127.6683644595363</v>
+        <v>-0.001515686731773158</v>
       </c>
       <c r="D204">
-        <v>0.09144017623026407</v>
+        <v>-0.001033712889485565</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.001515686731773158</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C205">
-        <v>128.2728301692651</v>
+        <v>0.001868408623343143</v>
       </c>
       <c r="D205">
-        <v>0.09260294694842616</v>
+        <v>0.001274272602832843</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.001868408623343143</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C206">
-        <v>128.877295878994</v>
+        <v>0.008331741632201073</v>
       </c>
       <c r="D206">
-        <v>0.09075684448097168</v>
+        <v>0.005682327710947292</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.008331741632201073</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C207">
-        <v>129.4817615887228</v>
+        <v>0.003854705717721174</v>
       </c>
       <c r="D207">
-        <v>0.09431527236050918</v>
+        <v>0.002628946273693738</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.003854705717721174</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C208">
-        <v>130.0862272984517</v>
+        <v>-0.002655476937141188</v>
       </c>
       <c r="D208">
-        <v>0.09190188382336893</v>
+        <v>-0.001811060742375965</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.002655476937141188</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C209">
-        <v>130.6906930081805</v>
+        <v>0.0002890460596951527</v>
       </c>
       <c r="D209">
-        <v>0.08522655323657595</v>
+        <v>0.0001971321852321997</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0002890460596951527</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C210">
-        <v>131.2951587179094</v>
+        <v>0.00114031444714513</v>
       </c>
       <c r="D210">
-        <v>0.06370650806653692</v>
+        <v>0.0007777053908108916</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.00114031444714513</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C211">
-        <v>131.8996244276383</v>
+        <v>-0.009083268789936483</v>
       </c>
       <c r="D211">
-        <v>0.04429510687934737</v>
+        <v>-0.00619487644114612</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.009083268789936483</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C212">
-        <v>132.5040901373671</v>
+        <v>-0.01585572511838329</v>
       </c>
       <c r="D212">
-        <v>0.04190518097853137</v>
+        <v>-0.01081375661832069</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.01585572511838329</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C213">
-        <v>133.108555847096</v>
+        <v>0.01000335035258892</v>
       </c>
       <c r="D213">
-        <v>0.01081235763388435</v>
+        <v>0.00682238089226656</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.01000335035258892</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>133.108555847096</v>
+        <v>-0.0008672232910491573</v>
       </c>
       <c r="D214">
-        <v>0.005117776683172715</v>
+        <v>-0.0004769728100770366</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.0008672232910491573</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C215">
-        <v>133.7130215568248</v>
+        <v>0.003129453862989351</v>
       </c>
       <c r="D215">
-        <v>0.03610231186248274</v>
+        <v>0.00213431755217518</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.003129453862989351</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C216">
-        <v>134.3174872665537</v>
+        <v>-0.01786447639264388</v>
       </c>
       <c r="D216">
-        <v>0.02042152021843531</v>
+        <v>-0.01218374425524123</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.01786447639264388</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C217">
-        <v>134.9219529762825</v>
+        <v>0.007228455862911431</v>
       </c>
       <c r="D217">
-        <v>0.04887659689799279</v>
+        <v>0.004929876233611678</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.007228455862911431</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C218">
-        <v>135.5264186860114</v>
+        <v>0.01486926521806531</v>
       </c>
       <c r="D218">
-        <v>0.02989569780440929</v>
+        <v>0.01014098150421357</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01486926521806531</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C219">
-        <v>136.1308843957403</v>
+        <v>0.01118782288293474</v>
       </c>
       <c r="D219">
-        <v>0.01903657292278331</v>
+        <v>0.007630202519383171</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01118782288293474</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C220">
-        <v>136.7353501054691</v>
+        <v>0.003320128729662031</v>
       </c>
       <c r="D220">
-        <v>-0.02441914424376317</v>
+        <v>0.002264359640192871</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.003320128729662031</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C221">
-        <v>137.339815815198</v>
+        <v>-0.005415470514540388</v>
       </c>
       <c r="D221">
-        <v>0.00209915005092691</v>
+        <v>-0.003693402835928001</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.005415470514540388</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C222">
-        <v>137.9442815249268</v>
+        <v>0.007299652162371828</v>
       </c>
       <c r="D222">
-        <v>-0.02545742120964896</v>
+        <v>0.004978432792756184</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.007299652162371828</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C223">
-        <v>138.5487472346557</v>
+        <v>0.001687074905651897</v>
       </c>
       <c r="D223">
-        <v>-0.08042708972495324</v>
+        <v>0.001150601268020478</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.001687074905651897</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C224">
-        <v>139.1532129443845</v>
+        <v>0.006441867553744984</v>
       </c>
       <c r="D224">
-        <v>-0.03158249368254268</v>
+        <v>0.004393415461831494</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.006441867553744984</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C225">
-        <v>139.7576786541134</v>
+        <v>-0.001631773441966189</v>
       </c>
       <c r="D225">
-        <v>-0.1017911713186026</v>
+        <v>-0.001112885139337041</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.001631773441966189</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C226">
-        <v>140.3621443638422</v>
+        <v>0.001841844733833753</v>
       </c>
       <c r="D226">
-        <v>-0.06976671363869467</v>
+        <v>0.001256155775387502</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.001841844733833753</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C227">
-        <v>140.9666100735711</v>
+        <v>-0.002924251578310333</v>
       </c>
       <c r="D227">
-        <v>-0.09903899856047832</v>
+        <v>-0.001994367625730661</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.002924251578310333</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>141.9666100735711</v>
+        <v>0.004694788714441955</v>
       </c>
       <c r="D228">
-        <v>-0.09645573310789698</v>
+        <v>0.003558427879537507</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.004694788714441955</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C229">
-        <v>142.5710757833</v>
+        <v>-0.00382284047783088</v>
       </c>
       <c r="D229">
-        <v>-0.1208359322166341</v>
+        <v>-0.002607213874438246</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.00382284047783088</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C230">
-        <v>143.1755414930288</v>
+        <v>-0.01057381502289445</v>
       </c>
       <c r="D230">
-        <v>-0.137188252408127</v>
+        <v>-0.007211443269292904</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.01057381502289445</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C231">
-        <v>143.7800072027577</v>
+        <v>-0.0340880461205213</v>
       </c>
       <c r="D231">
-        <v>-0.0878625160866081</v>
+        <v>-0.02324837442559007</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.0340880461205213</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C232">
-        <v>144.3844729124865</v>
+        <v>-0.03074792518809844</v>
       </c>
       <c r="D232">
-        <v>-0.0815545668156442</v>
+        <v>-0.02097037991134977</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.03074792518809844</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C233">
-        <v>144.9889386222154</v>
+        <v>-0.003785675340731487</v>
       </c>
       <c r="D233">
-        <v>-0.04825546100222718</v>
+        <v>-0.002581866894449712</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.003785675340731487</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C234">
-        <v>145.7861736452569</v>
+        <v>-0.04516817410065332</v>
       </c>
       <c r="D234">
-        <v>-0.06710275541467317</v>
+        <v>-0.03254116006534827</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04516817410065332</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C235">
-        <v>146.5834086682983</v>
+        <v>-0.008272449914275448</v>
       </c>
       <c r="D235">
-        <v>-0.04897111649287278</v>
+        <v>-0.005959840576976528</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.008272449914275448</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C236">
-        <v>147.3806436913398</v>
+        <v>0.04501086517277741</v>
       </c>
       <c r="D236">
-        <v>-0.0578494265780571</v>
+        <v>0.03242782772230712</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.04501086517277741</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>147.3806436913398</v>
+        <v>-0.02851053026190442</v>
       </c>
       <c r="D237">
-        <v>-0.08267990737799075</v>
+        <v>-0.01568079164404743</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.02851053026190442</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C238">
-        <v>148.1778787143813</v>
+        <v>0.04133635094064125</v>
       </c>
       <c r="D238">
-        <v>-0.07026492474099812</v>
+        <v>0.02978054436026805</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.04133635094064125</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>148.1778787143813</v>
+        <v>-0.03451072562469726</v>
       </c>
       <c r="D239">
-        <v>-0.07865399786857302</v>
+        <v>-0.01898089909358349</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.03451072562469726</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C240">
-        <v>148.7823444241102</v>
+        <v>-0.01720100245461964</v>
       </c>
       <c r="D240">
-        <v>-0.04127147105634555</v>
+        <v>-0.01173124866548895</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.01720100245461964</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>148.7823444241102</v>
+        <v>-0.07901039484826633</v>
       </c>
       <c r="D241">
-        <v>-0.04215385347096899</v>
+        <v>-0.04345571716654648</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.07901039484826633</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>148.7823444241102</v>
+        <v>0.04821508053580015</v>
       </c>
       <c r="D242">
-        <v>-0.02373471358638995</v>
+        <v>0.02651829429469008</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.04821508053580015</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>148.7823444241102</v>
+        <v>-0.05010285683741067</v>
       </c>
       <c r="D243">
-        <v>-0.01582382230236528</v>
+        <v>-0.02755657126057587</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05010285683741067</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>148.7823444241102</v>
+        <v>-0.09994485184600777</v>
       </c>
       <c r="D244">
-        <v>-0.02140961818140742</v>
+        <v>-0.05496966851530428</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.09994485184600777</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>148.7823444241102</v>
+        <v>0.08880835644074647</v>
       </c>
       <c r="D245">
-        <v>-0.004846645078656092</v>
+        <v>0.04884459604241057</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.08880835644074647</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>148.7823444241102</v>
+        <v>-0.1276521411564726</v>
       </c>
       <c r="D246">
-        <v>-0.0170988579521132</v>
+        <v>-0.07020867763605994</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1276521411564726</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>148.7823444241102</v>
+        <v>0.0582262866907417</v>
       </c>
       <c r="D247">
-        <v>-0.01390893550627244</v>
+        <v>0.03202445767990794</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0582262866907417</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>148.7823444241102</v>
+        <v>-0.0532223362214248</v>
       </c>
       <c r="D248">
-        <v>0.0006335754872793982</v>
+        <v>-0.02927228492178365</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.0532223362214248</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>148.7823444241102</v>
+        <v>0.004696846277420619</v>
       </c>
       <c r="D249">
-        <v>-0.009289961267605489</v>
+        <v>0.00258326545258134</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.004696846277420619</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>148.7823444241102</v>
+        <v>-0.04432763474315848</v>
       </c>
       <c r="D250">
-        <v>-0.02642530354649298</v>
+        <v>-0.02438019910873717</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.04432763474315848</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>148.7823444241102</v>
+        <v>-0.02973149125725971</v>
       </c>
       <c r="D251">
-        <v>-0.01395608796233723</v>
+        <v>-0.01635232019149284</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.02973149125725971</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>148.7823444241102</v>
+        <v>0.08968315694821616</v>
       </c>
       <c r="D252">
-        <v>-0.01425284826190212</v>
+        <v>0.04932573632151889</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.08968315694821616</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>148.7823444241102</v>
+        <v>0.01146899867447981</v>
       </c>
       <c r="D253">
-        <v>-0.00665068695795608</v>
+        <v>0.006307949270963898</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.01146899867447981</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>148.7823444241102</v>
+        <v>0.06054382875166731</v>
       </c>
       <c r="D254">
-        <v>0.001383092380490721</v>
+        <v>0.03329910581341702</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.06054382875166731</v>
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>148.7823444241102</v>
+        <v>-0.03426780802262908</v>
       </c>
       <c r="D255">
-        <v>-0.001507784322574816</v>
+        <v>-0.01884729441244599</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.03426780802262908</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>148.7823444241102</v>
+        <v>0.03296661622145525</v>
       </c>
       <c r="D256">
-        <v>0.01292238044141216</v>
+        <v>0.01813163892180039</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.03296661622145525</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>148.7823444241102</v>
+        <v>-0.01614238197306239</v>
       </c>
       <c r="D257">
-        <v>0.007832066352516161</v>
+        <v>-0.008878310085184317</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.01614238197306239</v>
+        <v>0</v>
       </c>
       <c r="C258">
-        <v>148.7823444241102</v>
+        <v>-0.04514632872715207</v>
       </c>
       <c r="D258">
-        <v>-0.007821055025239648</v>
+        <v>-0.02483048079993364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04514632872715207</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>148.7823444241102</v>
+        <v>0.02257269570362297</v>
       </c>
       <c r="D259">
-        <v>-0.00490176887627236</v>
+        <v>0.01241498263699263</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.02257269570362297</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>148.7823444241102</v>
+        <v>-0.01525286023195438</v>
       </c>
       <c r="D260">
-        <v>4.820482797358687e-05</v>
+        <v>-0.008389073127574909</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.01525286023195438</v>
+        <v>0</v>
       </c>
       <c r="C261">
-        <v>148.7823444241102</v>
+        <v>0.06796823056768631</v>
       </c>
       <c r="D261">
-        <v>-0.003803925541256769</v>
+        <v>0.03738252681222747</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.06796823056768631</v>
+        <v>0</v>
       </c>
       <c r="C262">
-        <v>148.7823444241102</v>
+        <v>-0.001604331662951708</v>
       </c>
       <c r="D262">
-        <v>0.002487496223972953</v>
+        <v>-0.0008823824146234394</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.001604331662951708</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>148.7823444241102</v>
+        <v>0.03348934524468916</v>
       </c>
       <c r="D263">
-        <v>0.01168941315837569</v>
+        <v>0.01841913988457904</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.03348934524468916</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>148.7823444241102</v>
+        <v>0.01438343869822667</v>
       </c>
       <c r="D264">
-        <v>0.01178702208131573</v>
+        <v>0.007910891284024668</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01438343869822667</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>148.7823444241102</v>
+        <v>-0.01015599250734933</v>
       </c>
       <c r="D265">
-        <v>0.0003702368452036323</v>
+        <v>-0.005585795879042133</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.01015599250734933</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>148.7823444241102</v>
+        <v>0.03011449655045695</v>
       </c>
       <c r="D266">
-        <v>-0.009319088841555367</v>
+        <v>0.01656297310275132</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.03011449655045695</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>148.7823444241102</v>
+        <v>-0.02227675067901291</v>
       </c>
       <c r="D267">
-        <v>-0.003016684049315742</v>
+        <v>-0.0122522128734571</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.02227675067901291</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>148.7823444241102</v>
+        <v>0.005799858992437734</v>
       </c>
       <c r="D268">
-        <v>-0.0008614033093761395</v>
+        <v>0.003189922445840754</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.005799858992437734</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>148.7823444241102</v>
+        <v>0.02644092907918516</v>
       </c>
       <c r="D269">
-        <v>0.01619696850096972</v>
+        <v>0.01454251099355184</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.02644092907918516</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>148.7823444241102</v>
+        <v>-0.0180427940997907</v>
       </c>
       <c r="D270">
-        <v>0.01040010192028571</v>
+        <v>-0.009923536754884887</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.0180427940997907</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>148.7823444241102</v>
+        <v>-0.03115516777979543</v>
       </c>
       <c r="D271">
-        <v>0.02176794788269848</v>
+        <v>-0.01713534227888749</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.03115516777979543</v>
+        <v>0</v>
       </c>
       <c r="C272">
-        <v>148.7823444241102</v>
+        <v>0.02267130106210136</v>
       </c>
       <c r="D272">
-        <v>0.01639588244337829</v>
+        <v>0.01246921558415575</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.02267130106210136</v>
+        <v>0</v>
       </c>
       <c r="C273">
-        <v>148.7823444241102</v>
+        <v>-0.0005395641810270746</v>
       </c>
       <c r="D273">
-        <v>0.01801423778020534</v>
+        <v>-0.000296760299564891</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.0005395641810270746</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>148.7823444241102</v>
+        <v>0.01382211146172008</v>
       </c>
       <c r="D274">
-        <v>0.02642227944526236</v>
+        <v>0.007602161303946043</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01382211146172008</v>
+        <v>0</v>
       </c>
       <c r="C275">
-        <v>148.7823444241102</v>
+        <v>0.01460687152444873</v>
       </c>
       <c r="D275">
-        <v>0.03655418094294615</v>
+        <v>0.008033779338446801</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.01460687152444873</v>
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>148.7823444241102</v>
+        <v>-0.005256139460119158</v>
       </c>
       <c r="D276">
-        <v>0.03510158317387543</v>
+        <v>-0.002890876703065537</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.005256139460119158</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>148.7823444241102</v>
+        <v>0.02623666320724904</v>
       </c>
       <c r="D277">
-        <v>0.0384063310394823</v>
+        <v>0.01443016476398697</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.02623666320724904</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>148.7823444241102</v>
+        <v>-0.00925511652526545</v>
       </c>
       <c r="D278">
-        <v>0.04098378875217568</v>
+        <v>-0.005090314088895998</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.00925511652526545</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>148.7823444241102</v>
+        <v>-0.02846022068682874</v>
       </c>
       <c r="D279">
-        <v>0.04661285583722908</v>
+        <v>-0.01565312137775581</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02846022068682874</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C280">
-        <v>149.5795794471516</v>
+        <v>0.004240812214593603</v>
       </c>
       <c r="D280">
-        <v>0.055944973024661</v>
+        <v>0.003055269597009866</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.004240812214593603</v>
+        <v>0</v>
       </c>
       <c r="C281">
-        <v>149.5795794471516</v>
+        <v>0.008999952189538085</v>
       </c>
       <c r="D281">
-        <v>0.05362211861255251</v>
+        <v>0.004949973704245947</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.008999952189538085</v>
+        <v>0</v>
       </c>
       <c r="C282">
-        <v>149.5795794471516</v>
+        <v>-0.007003873398600646</v>
       </c>
       <c r="D282">
-        <v>0.07143328249011219</v>
+        <v>-0.003852130369230356</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.007003873398600646</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>149.5795794471516</v>
+        <v>0.01143894866405404</v>
       </c>
       <c r="D283">
-        <v>0.07967295095938173</v>
+        <v>0.006291421765229722</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.01143894866405404</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>149.5795794471516</v>
+        <v>0.01673075806255042</v>
       </c>
       <c r="D284">
-        <v>0.07428311166634541</v>
+        <v>0.009201916934402733</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.01673075806255042</v>
+        <v>0</v>
       </c>
       <c r="C285">
-        <v>149.5795794471516</v>
+        <v>0.0001774707689818911</v>
       </c>
       <c r="D285">
-        <v>0.07061594910067315</v>
+        <v>9.76089229400401e-05</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.0001774707689818911</v>
+        <v>0</v>
       </c>
       <c r="C286">
-        <v>149.5795794471516</v>
+        <v>-0.02075779133838562</v>
       </c>
       <c r="D286">
-        <v>0.02879502436602695</v>
+        <v>-0.01141678523611209</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.02075779133838562</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>149.5795794471516</v>
+        <v>-0.01761695579410727</v>
       </c>
       <c r="D287">
-        <v>0.03772763693038212</v>
+        <v>-0.009689325686758999</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.01761695579410727</v>
+        <v>0</v>
       </c>
       <c r="C288">
-        <v>149.5795794471516</v>
+        <v>0.01145891780407204</v>
       </c>
       <c r="D288">
-        <v>0.04342593616666342</v>
+        <v>0.006302404792239625</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.01145891780407204</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>149.5795794471516</v>
+        <v>0.003918692254435641</v>
       </c>
       <c r="D289">
-        <v>0.05635705662226505</v>
+        <v>0.002155280739939603</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.003918692254435641</v>
+        <v>0</v>
       </c>
       <c r="C290">
-        <v>149.5795794471516</v>
+        <v>0.03101522147335611</v>
       </c>
       <c r="D290">
-        <v>0.05387421378030569</v>
+        <v>0.01705837181034586</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.03101522147335611</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>149.5795794471516</v>
+        <v>-0.01053975741942548</v>
       </c>
       <c r="D291">
-        <v>0.05428311921559783</v>
+        <v>-0.005796866580684013</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.01053975741942548</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C292">
-        <v>150.3768144701931</v>
+        <v>0.01651393441786198</v>
       </c>
       <c r="D292">
-        <v>0.05038312014004686</v>
+        <v>0.01189737229587365</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.01651393441786198</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C293">
-        <v>151.1740494932346</v>
+        <v>-0.007803935472623813</v>
       </c>
       <c r="D293">
-        <v>0.05483972424048439</v>
+        <v>-0.0056223019506699</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.007803935472623813</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C294">
-        <v>151.9712845162761</v>
+        <v>0.002350965520251158</v>
       </c>
       <c r="D294">
-        <v>0.05779850885865988</v>
+        <v>0.001693740046523182</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.002350965520251158</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C295">
-        <v>152.7685195393176</v>
+        <v>0.01221426197174935</v>
       </c>
       <c r="D295">
-        <v>0.03976622860118596</v>
+        <v>0.008799697172107806</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.01221426197174935</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C296">
-        <v>153.565754562359</v>
+        <v>0.01471849261629821</v>
       </c>
       <c r="D296">
-        <v>0.04726945676289354</v>
+        <v>0.0106038562258526</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01471849261629821</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C297">
-        <v>154.3629895854005</v>
+        <v>-0.002110171476045863</v>
       </c>
       <c r="D297">
-        <v>0.03038681173077473</v>
+        <v>-0.001520261315286319</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.002110171476045863</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C298">
-        <v>155.160224608442</v>
+        <v>0.004800767858805344</v>
       </c>
       <c r="D298">
-        <v>0.04042262579003157</v>
+        <v>0.003458686529631145</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.004800767858805344</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C299">
-        <v>155.9574596314835</v>
+        <v>0.003744242117017293</v>
       </c>
       <c r="D299">
-        <v>0.0509495474066595</v>
+        <v>0.00269751842927642</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.003744242117017293</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C300">
-        <v>156.754694654525</v>
+        <v>0.008177278702023116</v>
       </c>
       <c r="D300">
-        <v>0.05439801107922966</v>
+        <v>0.005891275005903963</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.008177278702023116</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C301">
-        <v>157.5519296775664</v>
+        <v>0.01355665547568208</v>
       </c>
       <c r="D301">
-        <v>0.05751705767259019</v>
+        <v>0.009766817113348175</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.01355665547568208</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C302">
-        <v>158.3491647006079</v>
+        <v>-0.003374382935046327</v>
       </c>
       <c r="D302">
-        <v>0.06836380674008546</v>
+        <v>-0.00243105543665388</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.003374382935046327</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C303">
-        <v>159.1463997236494</v>
+        <v>0.02587406560155259</v>
       </c>
       <c r="D303">
-        <v>0.06087595789937841</v>
+        <v>0.0186408267999761</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.02587406560155259</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C304">
-        <v>159.9436347466909</v>
+        <v>0.0119696682358601</v>
       </c>
       <c r="D304">
-        <v>0.06624326733402824</v>
+        <v>0.008623480974109256</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.0119696682358601</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C305">
-        <v>160.7408697697324</v>
+        <v>-0.007829755338198296</v>
       </c>
       <c r="D305">
-        <v>0.06234729992207037</v>
+        <v>-0.005640903729361523</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.007829755338198296</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C306">
-        <v>161.5381047927739</v>
+        <v>-0.005327243376571644</v>
       </c>
       <c r="D306">
-        <v>0.06951457353414456</v>
+        <v>-0.003837982891178611</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.005327243376571644</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C307">
-        <v>162.3353398158153</v>
+        <v>-0.06075275919869227</v>
       </c>
       <c r="D307">
-        <v>0.06303925116933519</v>
+        <v>-0.04376898780744847</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.06075275919869227</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C308">
-        <v>163.1325748388568</v>
+        <v>0.01297629986856563</v>
       </c>
       <c r="D308">
-        <v>0.07220659087412395</v>
+        <v>0.009348703140799405</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.01297629986856563</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C309">
-        <v>163.9298098618983</v>
+        <v>0.00827785142343096</v>
       </c>
       <c r="D309">
-        <v>0.07843025647608459</v>
+        <v>0.005963732064235505</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.00827785142343096</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C310">
-        <v>164.7270448849398</v>
+        <v>0.01878488465267303</v>
       </c>
       <c r="D310">
-        <v>0.07608156349723935</v>
+        <v>0.01353346577458608</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.01878488465267303</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C311">
-        <v>165.5242799079813</v>
+        <v>-0.003606796221337305</v>
       </c>
       <c r="D311">
-        <v>0.07803971950216861</v>
+        <v>-0.002598496297416922</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.003606796221337305</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C312">
-        <v>166.3215149310227</v>
+        <v>0.0005940120550409489</v>
       </c>
       <c r="D312">
-        <v>0.08380266630305605</v>
+        <v>0.0004279526845774002</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0005940120550409489</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C313">
-        <v>167.1187499540642</v>
+        <v>-0.005665482200965855</v>
       </c>
       <c r="D313">
-        <v>0.08495751942383961</v>
+        <v>-0.004081665172875449</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.005665482200965855</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C314">
-        <v>167.9159849771057</v>
+        <v>0.006474055690439684</v>
       </c>
       <c r="D314">
-        <v>0.08890237150157417</v>
+        <v>0.004664197450733998</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.006474055690439684</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C315">
-        <v>168.7132200001472</v>
+        <v>0.004298191170313714</v>
       </c>
       <c r="D315">
-        <v>0.08036898750255467</v>
+        <v>0.003096607946846851</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.004298191170313714</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C316">
-        <v>169.5104550231887</v>
+        <v>-0.02619527873275551</v>
       </c>
       <c r="D316">
-        <v>0.0760944079869446</v>
+        <v>-0.0188722430156122</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.02619527873275551</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C317">
-        <v>170.3076900462301</v>
+        <v>0.01089985017340922</v>
       </c>
       <c r="D317">
-        <v>0.08116632918600779</v>
+        <v>0.007852736495188395</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01089985017340922</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C318">
-        <v>171.1049250692716</v>
+        <v>-0.02452521733513002</v>
       </c>
       <c r="D318">
-        <v>0.0766956899637766</v>
+        <v>-0.01766905656096417</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.02452521733513002</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C319">
-        <v>171.9021600923131</v>
+        <v>0.01457890753907165</v>
       </c>
       <c r="D319">
-        <v>0.08519839830753932</v>
+        <v>0.01050329293253369</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01457890753907165</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C320">
-        <v>172.6993951153546</v>
+        <v>0.01529233363767979</v>
       </c>
       <c r="D320">
-        <v>0.0826119444422842</v>
+        <v>0.01101727680130532</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01529233363767979</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C321">
-        <v>173.4966301383961</v>
+        <v>0.005009542099664088</v>
       </c>
       <c r="D321">
-        <v>0.08787198027141052</v>
+        <v>0.003609096771456876</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.005009542099664088</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C322">
-        <v>174.2938651614375</v>
+        <v>0.004531001832653203</v>
       </c>
       <c r="D322">
-        <v>0.09279758401396622</v>
+        <v>0.003264335094976124</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.004531001832653203</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C323">
-        <v>175.091100184479</v>
+        <v>0.01575694316582776</v>
       </c>
       <c r="D323">
-        <v>0.09527950198889445</v>
+        <v>0.01135200215437489</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01575694316582776</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C324">
-        <v>175.8883352075205</v>
+        <v>-0.01087750881698746</v>
       </c>
       <c r="D324">
-        <v>0.09969143155034015</v>
+        <v>-0.007836640789088399</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.01087750881698746</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C325">
-        <v>176.685570230562</v>
+        <v>0.00779702648129188</v>
       </c>
       <c r="D325">
-        <v>0.1041019847754658</v>
+        <v>0.005617324406252862</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.00779702648129188</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C326">
-        <v>177.4828052536035</v>
+        <v>-0.005659625451288619</v>
       </c>
       <c r="D326">
-        <v>0.1045375870844004</v>
+        <v>-0.004077445710112025</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.005659625451288619</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C327">
-        <v>178.2800402766449</v>
+        <v>0.01041181300098692</v>
       </c>
       <c r="D327">
-        <v>0.1064227011400311</v>
+        <v>0.007501132825971132</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.01041181300098692</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C328">
-        <v>179.0772752996864</v>
+        <v>-0.009406623666484037</v>
       </c>
       <c r="D328">
-        <v>0.1009149485754422</v>
+        <v>-0.006776949755007316</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.009406623666484037</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C329">
-        <v>179.8745103227279</v>
+        <v>0.01331728518944608</v>
       </c>
       <c r="D329">
-        <v>0.1104830423328532</v>
+        <v>0.009594364120629546</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.01331728518944608</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C330">
-        <v>180.6717453457694</v>
+        <v>0.009041044884783744</v>
       </c>
       <c r="D330">
-        <v>0.1090723998560649</v>
+        <v>0.006513570552976828</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.009041044884783744</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C331">
-        <v>181.4689803688109</v>
+        <v>-0.003411918313160456</v>
       </c>
       <c r="D331">
-        <v>0.1089540354147476</v>
+        <v>-0.002458097591260426</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.003411918313160456</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C332">
-        <v>182.2662153918523</v>
+        <v>0.002844589903158834</v>
       </c>
       <c r="D332">
-        <v>0.1108169331493757</v>
+        <v>0.002049368990490724</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.002844589903158834</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C333">
-        <v>183.0634504148938</v>
+        <v>0.008371764170464147</v>
       </c>
       <c r="D333">
-        <v>0.1124007066436948</v>
+        <v>0.00603139098103328</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.008371764170464147</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C334">
-        <v>183.8606854379353</v>
+        <v>0.001677641372159755</v>
       </c>
       <c r="D334">
-        <v>0.1093621027789953</v>
+        <v>0.001208647405185047</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.001677641372159755</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C335">
-        <v>184.6579204609768</v>
+        <v>0.005730639622957057</v>
       </c>
       <c r="D335">
-        <v>0.1115330304860108</v>
+        <v>0.004128607475518373</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.005730639622957057</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C336">
-        <v>185.4551554840183</v>
+        <v>-0.01239634528724132</v>
       </c>
       <c r="D336">
-        <v>0.1138977698731194</v>
+        <v>-0.008930878085054376</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.01239634528724132</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C337">
-        <v>186.2523905070597</v>
+        <v>-0.006209630744304917</v>
       </c>
       <c r="D337">
-        <v>0.1207771413199193</v>
+        <v>-0.004473693967501142</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.006209630744304917</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C338">
-        <v>187.0496255301012</v>
+        <v>0.007367919510066656</v>
       </c>
       <c r="D338">
-        <v>0.1232483354341992</v>
+        <v>0.005308176673057358</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.007367919510066656</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C339">
-        <v>187.8468605531427</v>
+        <v>-0.00649444434468549</v>
       </c>
       <c r="D339">
-        <v>0.1309370389018692</v>
+        <v>-0.00467888634340102</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.00649444434468549</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C340">
-        <v>188.6440955761842</v>
+        <v>0.01235178312825269</v>
       </c>
       <c r="D340">
-        <v>0.1322040526833291</v>
+        <v>0.008898773525209321</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.01235178312825269</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C341">
-        <v>189.4413305992257</v>
+        <v>-0.003757310720683193</v>
       </c>
       <c r="D341">
-        <v>0.1372899261105226</v>
+        <v>-0.002706933632175147</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.003757310720683193</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C342">
-        <v>190.2385656222671</v>
+        <v>0.007641191392371738</v>
       </c>
       <c r="D342">
-        <v>0.1356244090398778</v>
+        <v>0.005505053882298368</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.007641191392371738</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C343">
-        <v>191.0358006453086</v>
+        <v>0.007155365883905418</v>
       </c>
       <c r="D343">
-        <v>0.1413066864885723</v>
+        <v>0.005155043594089639</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.007155365883905418</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C344">
-        <v>191.8330356683501</v>
+        <v>0.00360545267801804</v>
       </c>
       <c r="D344">
-        <v>0.15286470594209</v>
+        <v>0.002597528349097614</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.00360545267801804</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C345">
-        <v>192.6302706913916</v>
+        <v>0.006409157519801312</v>
       </c>
       <c r="D345">
-        <v>0.1257621459236708</v>
+        <v>0.004617441924287756</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.006409157519801312</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C346">
-        <v>193.4275057144331</v>
+        <v>0.006407158132423874</v>
       </c>
       <c r="D346">
-        <v>0.1195725127009966</v>
+        <v>0.004616001476760768</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.006407158132423874</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C347">
-        <v>194.2247407374745</v>
+        <v>0.0006327942853729951</v>
       </c>
       <c r="D347">
-        <v>0.09823700247487457</v>
+        <v>0.0004558931269365273</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.0006327942853729951</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C348">
-        <v>195.021975760516</v>
+        <v>0.002738482733475323</v>
       </c>
       <c r="D348">
-        <v>0.1133542167886209</v>
+        <v>0.00197292466964973</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.002738482733475323</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C349">
-        <v>195.8192107835575</v>
+        <v>-0.00800104654322098</v>
       </c>
       <c r="D349">
-        <v>0.09990719575892978</v>
+        <v>-0.005764309526284116</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.00800104654322098</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C350">
-        <v>196.616445806599</v>
+        <v>0.01389945582798013</v>
       </c>
       <c r="D350">
-        <v>0.1003111249686777</v>
+        <v>0.01001378572247837</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.01389945582798013</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C351">
-        <v>197.4136808296405</v>
+        <v>-0.002049223522710975</v>
       </c>
       <c r="D351">
-        <v>0.1099078029025115</v>
+        <v>-0.001476351700947994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.002049223522710975</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C352">
-        <v>198.2109158526819</v>
+        <v>-0.000171946613965801</v>
       </c>
       <c r="D352">
-        <v>0.1138535621440033</v>
+        <v>-0.0001238779826540486</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.000171946613965801</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C353">
-        <v>199.0081508757234</v>
+        <v>0.002706209348591671</v>
       </c>
       <c r="D353">
-        <v>0.1103444999909808</v>
+        <v>0.001949673488829155</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.002706209348591671</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C354">
-        <v>199.8053858987649</v>
+        <v>0.002300728889572667</v>
       </c>
       <c r="D354">
-        <v>0.1039413492696535</v>
+        <v>0.00165754734507792</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.002300728889572667</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C355">
-        <v>200.6026209218064</v>
+        <v>-0.004414143638946655</v>
       </c>
       <c r="D355">
-        <v>0.09541774251987134</v>
+        <v>-0.003180145258613063</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.004414143638946655</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C356">
-        <v>201.3998559448479</v>
+        <v>0.003153680820281224</v>
       </c>
       <c r="D356">
-        <v>0.08659624102439108</v>
+        <v>0.00227205182434651</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.003153680820281224</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C357">
-        <v>202.1970909678894</v>
+        <v>0.003435228739302687</v>
       </c>
       <c r="D357">
-        <v>0.0945267106793943</v>
+        <v>0.002474891458256144</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.003435228739302687</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C358">
-        <v>202.9943259909308</v>
+        <v>0.009993580954931858</v>
       </c>
       <c r="D358">
-        <v>0.0763303167517401</v>
+        <v>0.007199819872190713</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.009993580954931858</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C359">
-        <v>203.7915610139723</v>
+        <v>0.003589874253394854</v>
       </c>
       <c r="D359">
-        <v>0.07859125511524374</v>
+        <v>0.002586304959635393</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.003589874253394854</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>204.7915610139723</v>
+        <v>0.0101440409896405</v>
       </c>
       <c r="D360">
-        <v>0.09060516814578434</v>
+        <v>0.007688703467670034</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.0101440409896405</v>
+        <v>1</v>
       </c>
       <c r="C361">
-        <v>205.7915610139723</v>
+        <v>0.001671626404583293</v>
       </c>
       <c r="D361">
-        <v>0.1027188828844445</v>
+        <v>0.001267013781459872</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.001671626404583293</v>
+        <v>1</v>
       </c>
       <c r="C362">
-        <v>206.7915610139723</v>
+        <v>0.006710014078512572</v>
       </c>
       <c r="D362">
-        <v>0.09906233342491085</v>
+        <v>0.005085873427193507</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.006710014078512572</v>
+        <v>1</v>
       </c>
       <c r="C363">
-        <v>207.7915610139723</v>
+        <v>-0.00219738913128964</v>
       </c>
       <c r="D363">
-        <v>0.1052925788064642</v>
+        <v>-0.001665517070644827</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.00219738913128964</v>
+        <v>1</v>
       </c>
       <c r="C364">
-        <v>208.7915610139723</v>
+        <v>0.007496875851233042</v>
       </c>
       <c r="D364">
-        <v>0.1092937620445744</v>
+        <v>0.005682277448694537</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.007496875851233042</v>
+        <v>1</v>
       </c>
       <c r="C365">
-        <v>209.7915610139723</v>
+        <v>0.01524899790823575</v>
       </c>
       <c r="D365">
-        <v>0.1020039227423504</v>
+        <v>0.01155801945351765</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.01524899790823575</v>
+        <v>1</v>
       </c>
       <c r="C366">
-        <v>210.7915610139723</v>
+        <v>-0.03575758655631311</v>
       </c>
       <c r="D366">
-        <v>0.1155075214792517</v>
+        <v>-0.02710256001841918</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.03575758655631311</v>
+        <v>1</v>
       </c>
       <c r="C367">
-        <v>211.7915610139723</v>
+        <v>-0.008166252396865303</v>
       </c>
       <c r="D367">
-        <v>0.104830409062276</v>
+        <v>-0.006189633222674127</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.008166252396865303</v>
+        <v>1</v>
       </c>
       <c r="C368">
-        <v>212.7915610139723</v>
+        <v>-0.02814886686405949</v>
       </c>
       <c r="D368">
-        <v>0.1179096770788207</v>
+        <v>-0.02133551022612206</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.02814886686405949</v>
+        <v>1</v>
       </c>
       <c r="C369">
-        <v>213.7915610139723</v>
+        <v>0.01994479853367181</v>
       </c>
       <c r="D369">
-        <v>0.1239545384861555</v>
+        <v>0.01511721431374631</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.01994479853367181</v>
+        <v>1</v>
       </c>
       <c r="C370">
-        <v>214.7915610139723</v>
+        <v>-0.01774123987058651</v>
       </c>
       <c r="D370">
-        <v>0.1305883474748958</v>
+        <v>-0.0134470210296911</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01774123987058651</v>
+        <v>1</v>
       </c>
       <c r="C371">
-        <v>215.7915610139723</v>
+        <v>0.0005329213797651278</v>
       </c>
       <c r="D371">
-        <v>0.1429318981960628</v>
+        <v>0.0004039292097478846</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.0005329213797651278</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>216.7915610139723</v>
+        <v>0.01266131471119003</v>
       </c>
       <c r="D372">
-        <v>0.1381364219421764</v>
+        <v>0.009596677933833783</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.01266131471119003</v>
+        <v>1</v>
       </c>
       <c r="C373">
-        <v>217.7915610139723</v>
+        <v>0.005205811831507035</v>
       </c>
       <c r="D373">
-        <v>0.1330996979011562</v>
+        <v>0.003945759241491819</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.005205811831507035</v>
+        <v>1</v>
       </c>
       <c r="C374">
-        <v>218.7915610139723</v>
+        <v>-0.004629658363745293</v>
       </c>
       <c r="D374">
-        <v>0.1319408100657369</v>
+        <v>-0.003509062153022462</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.004629658363745293</v>
+        <v>1</v>
       </c>
       <c r="C375">
-        <v>219.7915610139723</v>
+        <v>-0.008447955322131051</v>
       </c>
       <c r="D375">
-        <v>0.1320430721899347</v>
+        <v>-0.006403150721327325</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.008447955322131051</v>
+        <v>1</v>
       </c>
       <c r="C376">
-        <v>220.7915610139723</v>
+        <v>-0.01124556521303433</v>
       </c>
       <c r="D376">
-        <v>0.1195636657095602</v>
+        <v>-0.008523606749782144</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01124556521303433</v>
+        <v>1</v>
       </c>
       <c r="C377">
-        <v>221.7915610139723</v>
+        <v>-0.01163859071124307</v>
       </c>
       <c r="D377">
-        <v>0.1231382757075219</v>
+        <v>-0.008821501495480269</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.01163859071124307</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <v>222.7915610139723</v>
+        <v>0.01046301363886926</v>
       </c>
       <c r="D378">
-        <v>0.1214722220820734</v>
+        <v>0.007930469655003228</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.01046301363886926</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>223.7915610139723</v>
+        <v>-0.02400729416109293</v>
       </c>
       <c r="D379">
-        <v>0.125417649381824</v>
+        <v>-0.01819639392765421</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.02400729416109293</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>224.7915610139723</v>
+        <v>0.002982954347357847</v>
       </c>
       <c r="D380">
-        <v>0.128024905547851</v>
+        <v>0.002260938363503644</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.002982954347357847</v>
+        <v>1</v>
       </c>
       <c r="C381">
-        <v>225.7915610139723</v>
+        <v>0.01585047813850871</v>
       </c>
       <c r="D381">
-        <v>0.1138023052286829</v>
+        <v>0.0120139130305406</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01585047813850871</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>226.7915610139723</v>
+        <v>0.01598215087400412</v>
       </c>
       <c r="D382">
-        <v>0.1115055615906774</v>
+        <v>0.01211371473866018</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01598215087400412</v>
+        <v>1</v>
       </c>
       <c r="C383">
-        <v>227.7915610139723</v>
+        <v>-0.004824244783808496</v>
       </c>
       <c r="D383">
-        <v>0.08427567713481481</v>
+        <v>-0.003656549459533678</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.004824244783808496</v>
+        <v>1</v>
       </c>
       <c r="C384">
-        <v>228.7915610139723</v>
+        <v>0.008219833784947284</v>
       </c>
       <c r="D384">
-        <v>0.09327750371733984</v>
+        <v>0.006230245381553337</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.008219833784947284</v>
+        <v>1</v>
       </c>
       <c r="C385">
-        <v>229.7915610139723</v>
+        <v>0.00527893512152211</v>
       </c>
       <c r="D385">
-        <v>0.08402769956002774</v>
+        <v>0.00400118323811018</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.00527893512152211</v>
+        <v>1</v>
       </c>
       <c r="C386">
-        <v>230.7915610139723</v>
+        <v>-0.00961780214318253</v>
       </c>
       <c r="D386">
-        <v>0.09330727067942349</v>
+        <v>-0.007289839302223924</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.00961780214318253</v>
+        <v>1</v>
       </c>
       <c r="C387">
-        <v>231.7915610139723</v>
+        <v>0.01781588530117872</v>
       </c>
       <c r="D387">
-        <v>0.1066796492453584</v>
+        <v>0.0135035987369013</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01781588530117872</v>
+        <v>1</v>
       </c>
       <c r="C388">
-        <v>232.7915610139723</v>
+        <v>-0.01408677893018329</v>
       </c>
       <c r="D388">
-        <v>0.1232087157736269</v>
+        <v>-0.01067711241697573</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01408677893018329</v>
+        <v>1</v>
       </c>
       <c r="C389">
-        <v>233.7915610139723</v>
+        <v>0.01725604732087938</v>
       </c>
       <c r="D389">
-        <v>0.137816937652421</v>
+        <v>0.0130792680165447</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01725604732087938</v>
+        <v>1</v>
       </c>
       <c r="C390">
-        <v>234.7915610139723</v>
+        <v>0.007975248642445365</v>
       </c>
       <c r="D390">
-        <v>0.137598833877788</v>
+        <v>0.006044861407334822</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.007975248642445365</v>
+        <v>1</v>
       </c>
       <c r="C391">
-        <v>235.7915610139723</v>
+        <v>0.008752272809347872</v>
       </c>
       <c r="D391">
-        <v>0.1464153081298631</v>
+        <v>0.006633808988740292</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.008752272809347872</v>
+        <v>1</v>
       </c>
       <c r="C392">
-        <v>236.7915610139723</v>
+        <v>0.01628538348496988</v>
       </c>
       <c r="D392">
-        <v>0.145353580477026</v>
+        <v>0.01234355072116696</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.01628538348496988</v>
+        <v>1</v>
       </c>
       <c r="C393">
-        <v>237.7915610139723</v>
+        <v>-0.006326880453748629</v>
       </c>
       <c r="D393">
-        <v>0.1511312730887348</v>
+        <v>-0.004795476253886353</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.006326880453748629</v>
+        <v>1</v>
       </c>
       <c r="C394">
-        <v>238.7915610139723</v>
+        <v>-0.006645169155040875</v>
       </c>
       <c r="D394">
-        <v>0.1435300086240011</v>
+        <v>-0.005036724041020207</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.006645169155040875</v>
+        <v>1</v>
       </c>
       <c r="C395">
-        <v>239.7915610139723</v>
+        <v>-0.001528971139844515</v>
       </c>
       <c r="D395">
-        <v>0.1537764506194952</v>
+        <v>-0.001158887835419378</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.001528971139844515</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>240.7915610139723</v>
+        <v>0.0001349188694703685</v>
       </c>
       <c r="D396">
-        <v>0.162554097884199</v>
+        <v>0.0001022621241978741</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.0001349188694703685</v>
+        <v>1</v>
       </c>
       <c r="C397">
-        <v>241.7915610139723</v>
+        <v>-0.01646462389863323</v>
       </c>
       <c r="D397">
-        <v>0.1589132900792158</v>
+        <v>-0.0124794064803745</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01646462389863323</v>
+        <v>1</v>
       </c>
       <c r="C398">
-        <v>242.7915610139723</v>
+        <v>0.004716138487298238</v>
       </c>
       <c r="D398">
-        <v>0.15009738017653</v>
+        <v>0.003574609997961684</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.004716138487298238</v>
+        <v>1</v>
       </c>
       <c r="C399">
-        <v>243.7915610139723</v>
+        <v>-0.002198097031385515</v>
       </c>
       <c r="D399">
-        <v>0.153082693633278</v>
+        <v>-0.001666053625448527</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.002198097031385515</v>
+        <v>1</v>
       </c>
       <c r="C400">
-        <v>244.7915610139723</v>
+        <v>0.00520537388632647</v>
       </c>
       <c r="D400">
-        <v>0.1479167034227918</v>
+        <v>0.003945427299750663</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.00520537388632647</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>245.7915610139723</v>
+        <v>0.003439866491129706</v>
       </c>
       <c r="D401">
-        <v>0.1521764694120849</v>
+        <v>0.002607256166027009</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.003439866491129706</v>
+        <v>1</v>
       </c>
       <c r="C402">
-        <v>246.7915610139723</v>
+        <v>-0.01876449536954716</v>
       </c>
       <c r="D402">
-        <v>0.164328352135846</v>
+        <v>-0.01422260031916813</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.01876449536954716</v>
+        <v>1</v>
       </c>
       <c r="C403">
-        <v>247.7915610139723</v>
+        <v>-0.003030193803752468</v>
       </c>
       <c r="D403">
-        <v>0.1632368087828506</v>
+        <v>-0.002296743638005501</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.003030193803752468</v>
+        <v>1</v>
       </c>
       <c r="C404">
-        <v>248.7915610139723</v>
+        <v>-0.03592557122600937</v>
       </c>
       <c r="D404">
-        <v>0.1650513910118624</v>
+        <v>-0.0272298844558626</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.03592557122600937</v>
+        <v>1</v>
       </c>
       <c r="C405">
-        <v>249.7915610139723</v>
+        <v>0.0118765014438047</v>
       </c>
       <c r="D405">
-        <v>0.1615601990534787</v>
+        <v>0.009001826582525027</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.0118765014438047</v>
+        <v>1</v>
       </c>
       <c r="C406">
-        <v>250.7915610139723</v>
+        <v>-0.01220366904673398</v>
       </c>
       <c r="D406">
-        <v>0.1700554253421864</v>
+        <v>-0.009249804157312093</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.01220366904673398</v>
+        <v>1</v>
       </c>
       <c r="C407">
-        <v>251.7915610139723</v>
+        <v>0.01224294189485242</v>
       </c>
       <c r="D407">
-        <v>0.1714118185231273</v>
+        <v>0.009279571119395737</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.01224294189485242</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>252.7915610139723</v>
+        <v>0.01764276082075789</v>
       </c>
       <c r="D408">
-        <v>0.1709385972385548</v>
+        <v>0.01337237856593495</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.01764276082075789</v>
+        <v>1</v>
       </c>
       <c r="C409">
-        <v>253.7915610139723</v>
+        <v>0.02180751658433522</v>
       </c>
       <c r="D409">
-        <v>0.1776066287295183</v>
+        <v>0.01652906652826845</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.02180751658433522</v>
+        <v>1</v>
       </c>
       <c r="C410">
-        <v>254.7915610139723</v>
+        <v>0.01927326267001384</v>
       </c>
       <c r="D410">
-        <v>0.1762729142215844</v>
+        <v>0.01460822187879413</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.01927326267001384</v>
+        <v>1</v>
       </c>
       <c r="C411">
-        <v>255.7915610139723</v>
+        <v>-0.0002877537986964995</v>
       </c>
       <c r="D411">
-        <v>0.1781888524139565</v>
+        <v>-0.0002181037746330527</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.0002877537986964995</v>
+        <v>1</v>
       </c>
       <c r="C412">
-        <v>256.7915610139723</v>
+        <v>0.01163195805030348</v>
       </c>
       <c r="D412">
-        <v>0.1726949107855771</v>
+        <v>0.008816474252075183</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.01163195805030348</v>
+        <v>1</v>
       </c>
       <c r="C413">
-        <v>257.7915610139723</v>
+        <v>-0.001400783483912704</v>
       </c>
       <c r="D413">
-        <v>0.1718096949232598</v>
+        <v>-0.001061727652837117</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.001400783483912704</v>
+        <v>1</v>
       </c>
       <c r="C414">
-        <v>258.7915610139723</v>
+        <v>0.007622761226929953</v>
       </c>
       <c r="D414">
-        <v>0.1709383717474992</v>
+        <v>0.005777692611708786</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.007622761226929953</v>
+        <v>1</v>
       </c>
       <c r="C415">
-        <v>259.7915610139723</v>
+        <v>-0.01002867890894521</v>
       </c>
       <c r="D415">
-        <v>0.1679309840872881</v>
+        <v>-0.007601264464733695</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.01002867890894521</v>
+        <v>1</v>
       </c>
       <c r="C416">
-        <v>260.7915610139723</v>
+        <v>0.01351857670637457</v>
       </c>
       <c r="D416">
-        <v>0.1767687020605476</v>
+        <v>0.01024644199549406</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01351857670637457</v>
+        <v>1</v>
       </c>
       <c r="C417">
-        <v>261.7915610139723</v>
+        <v>0.01158073191665743</v>
       </c>
       <c r="D417">
-        <v>0.1779880129789351</v>
+        <v>0.008777647264703783</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.01158073191665743</v>
+        <v>1</v>
       </c>
       <c r="C418">
-        <v>262.7915610139723</v>
+        <v>-0.00480347613410359</v>
       </c>
       <c r="D418">
-        <v>0.1819400843109334</v>
+        <v>-0.003640807804983188</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.00480347613410359</v>
+        <v>1</v>
       </c>
       <c r="C419">
-        <v>263.7915610139723</v>
+        <v>-0.0116312134796015</v>
       </c>
       <c r="D419">
-        <v>0.1795188635866492</v>
+        <v>-0.008815909902685812</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.0116312134796015</v>
+        <v>1</v>
       </c>
       <c r="C420">
-        <v>264.7915610139723</v>
+        <v>0.003938653922539004</v>
       </c>
       <c r="D420">
-        <v>0.1768245955818212</v>
+        <v>0.002985313456748072</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.003938653922539004</v>
+        <v>1</v>
       </c>
       <c r="C421">
-        <v>265.7915610139723</v>
+        <v>-0.006815715636271591</v>
       </c>
       <c r="D421">
-        <v>0.1753960243000515</v>
+        <v>-0.005165990210486267</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.006815715636271591</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>266.7915610139723</v>
+        <v>0.0056200945950593</v>
       </c>
       <c r="D422">
-        <v>0.1759092337631549</v>
+        <v>0.004259765989293131</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.0056200945950593</v>
+        <v>1</v>
       </c>
       <c r="C423">
-        <v>267.7915610139723</v>
+        <v>0.01603250755728425</v>
       </c>
       <c r="D423">
-        <v>0.178339443545732</v>
+        <v>0.01215188272376115</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.01603250755728425</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C424">
-        <v>268.5887960370138</v>
+        <v>-0.001585672026628515</v>
       </c>
       <c r="D424">
-        <v>0.1843178050908107</v>
+        <v>-0.001142388601201335</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.001585672026628515</v>
+        <v>1</v>
       </c>
       <c r="C425">
-        <v>269.5887960370138</v>
+        <v>0.002394057279952122</v>
       </c>
       <c r="D425">
-        <v>0.1827828255118112</v>
+        <v>0.001814582229011765</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.002394057279952122</v>
+        <v>1</v>
       </c>
       <c r="C426">
-        <v>270.5887960370138</v>
+        <v>-0.004606081438497611</v>
       </c>
       <c r="D426">
-        <v>0.1837056995410191</v>
+        <v>-0.003491191958383662</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.004606081438497611</v>
+        <v>1</v>
       </c>
       <c r="C427">
-        <v>271.5887960370138</v>
+        <v>0.01120812163601848</v>
       </c>
       <c r="D427">
-        <v>0.1881238516763708</v>
+        <v>0.008495226288707731</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.01120812163601848</v>
+        <v>1</v>
       </c>
       <c r="C428">
-        <v>272.5887960370138</v>
+        <v>0.001789548534858909</v>
       </c>
       <c r="D428">
-        <v>0.1778912916076812</v>
+        <v>0.001356393180940917</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.001789548534858909</v>
+        <v>1</v>
       </c>
       <c r="C429">
-        <v>273.5887960370138</v>
+        <v>-0.0006243414287023796</v>
       </c>
       <c r="D429">
-        <v>0.182749578963478</v>
+        <v>-0.0004732212845725273</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.0006243414287023796</v>
+        <v>1</v>
       </c>
       <c r="C430">
-        <v>274.5887960370138</v>
+        <v>0.00879742404541517</v>
       </c>
       <c r="D430">
-        <v>0.1866689756409513</v>
+        <v>0.006668031490963494</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.00879742404541517</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C431">
-        <v>275.3860310600553</v>
+        <v>-0.00193747117870835</v>
       </c>
       <c r="D431">
-        <v>0.196814457866806</v>
+        <v>-0.00139584034563477</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.00193747117870835</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C432">
-        <v>276.1832660830968</v>
+        <v>0.002783260589747982</v>
       </c>
       <c r="D432">
-        <v>0.2005846171877698</v>
+        <v>0.002005184627404602</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.002783260589747982</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C433">
-        <v>276.9805011061383</v>
+        <v>-0.007980983560702981</v>
       </c>
       <c r="D433">
-        <v>0.196057579473911</v>
+        <v>-0.005749855262003881</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.007980983560702981</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C434">
-        <v>277.7777361291797</v>
+        <v>-0.001285942538656215</v>
       </c>
       <c r="D434">
-        <v>0.1963437701024076</v>
+        <v>-0.000926450156962332</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.001285942538656215</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C435">
-        <v>278.5749711522212</v>
+        <v>-0.001265760798382587</v>
       </c>
       <c r="D435">
-        <v>0.1979084679348372</v>
+        <v>-0.0009119103343169017</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.001265760798382587</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C436">
-        <v>279.3722061752627</v>
+        <v>-0.004368796230528105</v>
       </c>
       <c r="D436">
-        <v>0.1953198184362623</v>
+        <v>-0.003147474970179256</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.004368796230528105</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C437">
-        <v>280.1694411983042</v>
+        <v>0.01283844762644826</v>
       </c>
       <c r="D437">
-        <v>0.1903524819754567</v>
+        <v>0.009249388258906852</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01283844762644826</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C438">
-        <v>280.9666762213457</v>
+        <v>0.001771278446929259</v>
       </c>
       <c r="D438">
-        <v>0.1959307481135527</v>
+        <v>0.001276107715432154</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.001771278446929259</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C439">
-        <v>281.7639112443871</v>
+        <v>0.005741126947631514</v>
       </c>
       <c r="D439">
-        <v>0.2054574792819926</v>
+        <v>0.004136163010309934</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.005741126947631514</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C440">
-        <v>282.5611462674286</v>
+        <v>-0.003517278505022148</v>
       </c>
       <c r="D440">
-        <v>0.2056754756815179</v>
+        <v>-0.002534003756080082</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.003517278505022148</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C441">
-        <v>283.3583812904701</v>
+        <v>-0.003913931036978013</v>
       </c>
       <c r="D441">
-        <v>0.2035999253142637</v>
+        <v>-0.002819769868828811</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.003913931036978013</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C442">
-        <v>284.1556163135116</v>
+        <v>-0.002075268484142967</v>
       </c>
       <c r="D442">
-        <v>0.2060844793303075</v>
+        <v>-0.001495115648699472</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.002075268484142967</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C443">
-        <v>284.9528513365531</v>
+        <v>0.0007455332737915654</v>
       </c>
       <c r="D443">
-        <v>0.2050588319448868</v>
+        <v>0.0005371153047371809</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0007455332737915654</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C444">
-        <v>285.7500863595945</v>
+        <v>0.003530336802928247</v>
       </c>
       <c r="D444">
-        <v>0.1886364423623638</v>
+        <v>0.002543411534251421</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.003530336802928247</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C445">
-        <v>286.547321382636</v>
+        <v>0.008684694603369181</v>
       </c>
       <c r="D445">
-        <v>0.1953228983239926</v>
+        <v>0.006256839972701379</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.008684694603369181</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C446">
-        <v>287.3445564056775</v>
+        <v>-0.002229846550012127</v>
       </c>
       <c r="D446">
-        <v>0.1818992280083926</v>
+        <v>-0.001606480557381214</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.002229846550012127</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C447">
-        <v>288.141791428719</v>
+        <v>0.001340648109120934</v>
       </c>
       <c r="D447">
-        <v>0.1928611607662151</v>
+        <v>0.0009658624812460552</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.001340648109120934</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C448">
-        <v>288.9390264517605</v>
+        <v>0.006418196978792423</v>
       </c>
       <c r="D448">
-        <v>0.2023625410542176</v>
+        <v>0.004623954352292448</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.006418196978792423</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C449">
-        <v>289.7362614748019</v>
+        <v>-0.01486471812337165</v>
       </c>
       <c r="D449">
-        <v>0.2030566310892346</v>
+        <v>-0.01070920357995883</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01486471812337165</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C450">
-        <v>290.5334964978434</v>
+        <v>0.007057576170721447</v>
       </c>
       <c r="D450">
-        <v>0.2104875654080139</v>
+        <v>0.005084591538569909</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.007057576170721447</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C451">
-        <v>291.3307315208849</v>
+        <v>0.005693660866217698</v>
       </c>
       <c r="D451">
-        <v>0.2131652888761171</v>
+        <v>0.004101966335688555</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.005693660866217698</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C452">
-        <v>292.1279665439264</v>
+        <v>0.01473822117834089</v>
       </c>
       <c r="D452">
-        <v>0.2182400913680432</v>
+        <v>0.01061806955875951</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01473822117834089</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C453">
-        <v>292.9252015669679</v>
+        <v>0.005476865536104825</v>
       </c>
       <c r="D453">
-        <v>0.2174731559255184</v>
+        <v>0.00394577734467683</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.005476865536104825</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C454">
-        <v>293.7224365900094</v>
+        <v>-0.0065763737616642</v>
       </c>
       <c r="D454">
-        <v>0.2172355140348148</v>
+        <v>-0.004737911936643371</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.0065763737616642</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C455">
-        <v>294.5196716130508</v>
+        <v>0.0004157457169657874</v>
       </c>
       <c r="D455">
-        <v>0.2183789630507179</v>
+        <v>0.000299521691802702</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.0004157457169657874</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C456">
-        <v>295.3169066360923</v>
+        <v>0.002273017902771457</v>
       </c>
       <c r="D456">
-        <v>0.2216142901572507</v>
+        <v>0.001637583118606036</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.002273017902771457</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C457">
-        <v>296.1141416591338</v>
+        <v>-0.003760500291052793</v>
       </c>
       <c r="D457">
-        <v>0.2212223016673524</v>
+        <v>-0.002709231540425888</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.003760500291052793</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C458">
-        <v>296.9113766821753</v>
+        <v>-0.007215990506594494</v>
       </c>
       <c r="D458">
-        <v>0.2210017100106594</v>
+        <v>-0.005198720266660692</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.007215990506594494</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C459">
-        <v>297.7086117052168</v>
+        <v>0.008103480771509908</v>
       </c>
       <c r="D459">
-        <v>0.2179552288660589</v>
+        <v>0.005838107696905147</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.008103480771509908</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C460">
-        <v>298.5058467282582</v>
+        <v>0.01383936888768567</v>
       </c>
       <c r="D460">
-        <v>0.216677172965996</v>
+        <v>0.009970496420201015</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.01383936888768567</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C461">
-        <v>299.3030817512997</v>
+        <v>0.0003166807728565146</v>
       </c>
       <c r="D461">
-        <v>0.2113333534938755</v>
+        <v>0.0002281509032483336</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.0003166807728565146</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C462">
-        <v>300.1003167743412</v>
+        <v>-0.003015127294927922</v>
       </c>
       <c r="D462">
-        <v>0.2121976129515252</v>
+        <v>-0.002172231706843135</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.003015127294927922</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C463">
-        <v>300.8975517973827</v>
+        <v>0.003609282023546712</v>
       </c>
       <c r="D463">
-        <v>0.2199678393130033</v>
+        <v>0.002600287179806962</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.003609282023546712</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C464">
-        <v>301.6947868204242</v>
+        <v>-0.001489945739473697</v>
       </c>
       <c r="D464">
-        <v>0.2029074428024117</v>
+        <v>-0.001073423129499405</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.001489945739473697</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C465">
-        <v>302.299252530153</v>
+        <v>-0.02601328989204887</v>
       </c>
       <c r="D465">
-        <v>0.1996297373150366</v>
+        <v>-0.01774131322498108</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.02601328989204887</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C466">
-        <v>303.0964875531945</v>
+        <v>0.009713334927598183</v>
       </c>
       <c r="D466">
-        <v>0.2158149943384175</v>
+        <v>0.006997918178913915</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.009713334927598183</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C467">
-        <v>303.893722576236</v>
+        <v>-0.01950040596712732</v>
       </c>
       <c r="D467">
-        <v>0.2102297132456819</v>
+        <v>-0.01404895912997254</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.01950040596712732</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C468">
-        <v>304.6909575992775</v>
+        <v>0.01592426914071865</v>
       </c>
       <c r="D468">
-        <v>0.2011759334019549</v>
+        <v>0.01147255122328083</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.01592426914071865</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C469">
-        <v>305.4881926223189</v>
+        <v>0.01380254196564934</v>
       </c>
       <c r="D469">
-        <v>0.191877283492182</v>
+        <v>0.009943964668839367</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.01380254196564934</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C470">
-        <v>306.2854276453604</v>
+        <v>0.001008296325993641</v>
       </c>
       <c r="D470">
-        <v>0.2051687560200356</v>
+        <v>0.0007264214857201203</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.001008296325993641</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C471">
-        <v>307.0826626684019</v>
+        <v>0.01079482976893864</v>
       </c>
       <c r="D471">
-        <v>0.2022132298032379</v>
+        <v>0.007777075128306723</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.01079482976893864</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C472">
-        <v>307.8798976914434</v>
+        <v>0.00388989698555342</v>
       </c>
       <c r="D472">
-        <v>0.2099437225834749</v>
+        <v>0.002802454670019054</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.00388989698555342</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C473">
-        <v>308.6771327144849</v>
+        <v>0.007372105129887174</v>
       </c>
       <c r="D473">
-        <v>0.2140823767598485</v>
+        <v>0.00531119217960072</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.007372105129887174</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C474">
-        <v>309.4743677375263</v>
+        <v>-0.001114117981758866</v>
       </c>
       <c r="D474">
-        <v>0.2212014674321181</v>
+        <v>-0.0008026601096450709</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.001114117981758866</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C475">
-        <v>310.2716027605678</v>
+        <v>-0.0003452195438775618</v>
       </c>
       <c r="D475">
-        <v>0.2219000918363658</v>
+        <v>-0.0002487115022620269</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.0003452195438775618</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C476">
-        <v>311.0688377836093</v>
+        <v>0.001661074764843562</v>
       </c>
       <c r="D476">
-        <v>0.226354576349255</v>
+        <v>0.001196712084992235</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.001661074764843562</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C477">
-        <v>311.8660728066508</v>
+        <v>0.004699921149025954</v>
       </c>
       <c r="D477">
-        <v>0.2252731866848605</v>
+        <v>0.003386032077899669</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.004699921149025954</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C478">
-        <v>312.6633078296923</v>
+        <v>-0.0005694370099789126</v>
       </c>
       <c r="D478">
-        <v>0.227252417690038</v>
+        <v>-0.0004102477299074415</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.0005694370099789126</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C479">
-        <v>313.4605428527337</v>
+        <v>-0.0003204508720298094</v>
       </c>
       <c r="D479">
-        <v>0.2170158633169369</v>
+        <v>-0.0002308670502501369</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.0003204508720298094</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C480">
-        <v>314.2577778757752</v>
+        <v>-0.00442558686962613</v>
       </c>
       <c r="D480">
-        <v>0.2166008254217578</v>
+        <v>-0.003188389470574691</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.00442558686962613</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C481">
-        <v>315.0550128988167</v>
+        <v>-0.001856616582049497</v>
       </c>
       <c r="D481">
-        <v>0.2214198637326075</v>
+        <v>-0.001337589100719895</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.001856616582049497</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C482">
-        <v>315.8522479218582</v>
+        <v>-0.007762902892533674</v>
       </c>
       <c r="D482">
-        <v>0.2161468110571736</v>
+        <v>-0.005592740256331052</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.007762902892533674</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C483">
-        <v>316.6494829448997</v>
+        <v>0.001255499419224648</v>
       </c>
       <c r="D483">
-        <v>0.2123729080222198</v>
+        <v>0.0009045175807173072</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.001255499419224648</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C484">
-        <v>317.4467179679411</v>
+        <v>0.01128771527778127</v>
       </c>
       <c r="D484">
-        <v>0.2159707559418477</v>
+        <v>0.008132171754559471</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.01128771527778127</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C485">
-        <v>318.2439529909826</v>
+        <v>-0.02478343479056377</v>
       </c>
       <c r="D485">
-        <v>0.2273251643386411</v>
+        <v>-0.01785508789201182</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.02478343479056377</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C486">
-        <v>319.0411880140241</v>
+        <v>-0.004761483718072057</v>
       </c>
       <c r="D486">
-        <v>0.2267273746700322</v>
+        <v>-0.003430384488712182</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.004761483718072057</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C487">
-        <v>319.8384230370656</v>
+        <v>0.02351213008199693</v>
       </c>
       <c r="D487">
-        <v>0.2245501560106276</v>
+        <v>0.016939183478406</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.02351213008199693</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C488">
-        <v>320.6356580601071</v>
+        <v>-0.008113671312553805</v>
       </c>
       <c r="D488">
-        <v>0.2268329601258181</v>
+        <v>-0.005845449415579074</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.008113671312553805</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C489">
-        <v>321.4328930831485</v>
+        <v>-0.01315231813198636</v>
       </c>
       <c r="D489">
-        <v>0.2349253884540611</v>
+        <v>-0.009475514520680173</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.01315231813198636</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C490">
-        <v>322.23012810619</v>
+        <v>-0.01350803796008293</v>
       </c>
       <c r="D490">
-        <v>0.2447933281610123</v>
+        <v>-0.009731790894365626</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.01350803796008293</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C491">
-        <v>323.0273631292315</v>
+        <v>0.01930836381558443</v>
       </c>
       <c r="D491">
-        <v>0.2441228386601989</v>
+        <v>0.01391060342892682</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.01930836381558443</v>
+        <v>0</v>
       </c>
       <c r="C492">
-        <v>323.0273631292315</v>
+        <v>-0.00537368403054117</v>
       </c>
       <c r="D492">
-        <v>0.2450534766302588</v>
+        <v>-0.002955526216797644</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>-0.00537368403054117</v>
+        <v>0</v>
       </c>
       <c r="C493">
-        <v>323.0273631292315</v>
+        <v>0.0140554414186127</v>
       </c>
       <c r="D493">
-        <v>0.247712391810172</v>
+        <v>0.007730492780236986</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.0140554414186127</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C494">
-        <v>323.824598152273</v>
+        <v>0.006012173623114236</v>
       </c>
       <c r="D494">
-        <v>0.2525673475657523</v>
+        <v>0.004331437081659571</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.006012173623114236</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C495">
-        <v>324.6218331753145</v>
+        <v>0.01034181821827929</v>
       </c>
       <c r="D495">
-        <v>0.2524434836382288</v>
+        <v>0.007450705473677615</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.01034181821827929</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C496">
-        <v>325.4190681983559</v>
+        <v>0.001014883350162421</v>
       </c>
       <c r="D496">
-        <v>0.2545199596217385</v>
+        <v>0.0007311670706833943</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.001014883350162421</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C497">
-        <v>326.2163032213974</v>
+        <v>0.006470976590856381</v>
       </c>
       <c r="D497">
-        <v>0.2519340097905274</v>
+        <v>0.00466197913054744</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.006470976590856381</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C498">
-        <v>327.0135382444389</v>
+        <v>-0.00157092188414687</v>
       </c>
       <c r="D498">
-        <v>0.2588993271348055</v>
+        <v>-0.001131761943005847</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.00157092188414687</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C499">
-        <v>327.8107732674804</v>
+        <v>0.002875205304977868</v>
       </c>
       <c r="D499">
-        <v>0.2611734573101451</v>
+        <v>0.002071425686624556</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.002875205304977868</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C500">
-        <v>328.6080082905219</v>
+        <v>-0.01487052060181071</v>
       </c>
       <c r="D500">
-        <v>0.2578145328851647</v>
+        <v>-0.01071338394331026</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.01487052060181071</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C501">
-        <v>329.4052433135633</v>
+        <v>-0.0006029206064699366</v>
       </c>
       <c r="D501">
-        <v>0.2535054772365585</v>
+        <v>-0.0004343708009563149</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.0006029206064699366</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C502">
-        <v>330.2024783366048</v>
+        <v>0.007000559550654373</v>
       </c>
       <c r="D502">
-        <v>0.2593532963166478</v>
+        <v>0.005043514231440928</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.007000559550654373</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C503">
-        <v>330.9997133596463</v>
+        <v>-0.007660100809948389</v>
       </c>
       <c r="D503">
-        <v>0.2535115842622692</v>
+        <v>-0.005518677067126099</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.007660100809948389</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C504">
-        <v>331.7969483826878</v>
+        <v>-0.005482303984823744</v>
+      </c>
+      <c r="D504">
+        <v>-0.003949695444839019</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>-0.005482303984823744</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C505">
-        <v>332.5941834057293</v>
+        <v>0.005226550815926601</v>
+      </c>
+      <c r="D505">
+        <v>0.003765439495334484</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.005226550815926601</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C506">
-        <v>333.3914184287707</v>
+        <v>0.01649441382635253</v>
+      </c>
+      <c r="D506">
+        <v>0.01188330879418187</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.01649441382635253</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C507">
-        <v>334.1886534518122</v>
+        <v>-0.0008684019308251578</v>
+      </c>
+      <c r="D507">
+        <v>-0.0006256353460086008</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.0008684019308251578</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C508">
-        <v>334.9858884748537</v>
+        <v>-0.003162819611880252</v>
+      </c>
+      <c r="D508">
+        <v>-0.002278635815976659</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.003162819611880252</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C509">
-        <v>335.5903541845826</v>
+        <v>0.003615992965993797</v>
+      </c>
+      <c r="D509">
+        <v>0.002466141887290963</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.003615992965993797</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C510">
-        <v>336.387589207624</v>
+        <v>0.01175577423688878</v>
+      </c>
+      <c r="D510">
+        <v>0.008469382230997958</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.01175577423688878</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C511">
-        <v>337.1848242306655</v>
+        <v>0.01433503846716633</v>
+      </c>
+      <c r="D511">
+        <v>0.01032759881467595</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.01433503846716633</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="C512">
-        <v>337.982059253707</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.0009740121110812794</v>
+      </c>
+      <c r="D512">
+        <v>-0.000701721613578027</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.0009740121110812794</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C513">
-        <v>338.5865249634359</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.001474143283354934</v>
+      </c>
+      <c r="D513">
+        <v>0.001005379859180973</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.001474143283354934</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C514">
-        <v>339.1909906731647</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.004211758040806757</v>
+      </c>
+      <c r="D514">
+        <v>0.002872459382872007</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.004211758040806757</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C515">
-        <v>339.7954563828936</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.007690316372556794</v>
+      </c>
+      <c r="D515">
+        <v>0.005244869531340325</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.007690316372556794</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C516">
-        <v>340.3999220926224</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>-0.0001962021566743744</v>
+      </c>
+      <c r="D516">
+        <v>-0.0001338117528164264</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>-0.0001962021566743744</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C517">
-        <v>341.0043878023513</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.003289166381145847</v>
+      </c>
+      <c r="D517">
+        <v>0.002243243021515026</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.003289166381145847</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C518">
-        <v>341.6088535120801</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.004096179929696575</v>
+      </c>
+      <c r="D518">
+        <v>-0.0027936340024735</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.004096179929696575</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C519">
-        <v>342.213319221809</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.01103315801615423</v>
+      </c>
+      <c r="D519">
+        <v>0.007524719596698653</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.01103315801615423</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C520">
-        <v>342.8177849315379</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.003602253326539184</v>
+      </c>
+      <c r="D520">
+        <v>0.002456771321392756</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.003602253326539184</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C521">
-        <v>343.4222506412667</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.005320582266875817</v>
+      </c>
+      <c r="D521">
+        <v>-0.003628688140855876</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.005320582266875817</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C522">
-        <v>344.0267163509956</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.006825603130707236</v>
+      </c>
+      <c r="D522">
+        <v>-0.004655126806098527</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.006825603130707236</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C523">
-        <v>344.6311820607244</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.009263025469113728</v>
+      </c>
+      <c r="D523">
+        <v>0.006317472220565036</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.009263025469113728</v>
+        <v>0.6044657097288676</v>
       </c>
       <c r="C524">
-        <v>345.2356477704533</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.009253351856793657</v>
       </c>
-      <c r="C525">
-        <v>345.8401134801821</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>346.444579189911</v>
+      <c r="D524">
+        <v>-0.006310874724173783</v>
       </c>
     </row>
   </sheetData>
